--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.75211977021945</v>
+        <v>21.75211977021939</v>
       </c>
       <c r="C2">
-        <v>14.01374435825854</v>
+        <v>14.01374435825843</v>
       </c>
       <c r="D2">
-        <v>7.727832912286334</v>
+        <v>7.727832912286413</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.166669906212634</v>
+        <v>9.166669906212718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.394781419930474</v>
+        <v>8.394781419930492</v>
       </c>
       <c r="L2">
-        <v>14.94106074149916</v>
+        <v>14.94106074149907</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11142704406793</v>
+        <v>20.11142704406795</v>
       </c>
       <c r="C3">
-        <v>12.98889818141356</v>
+        <v>12.9888981814134</v>
       </c>
       <c r="D3">
-        <v>7.33585314118095</v>
+        <v>7.335853141180924</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.48467842613439</v>
+        <v>59.48467842613455</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.9104390698853</v>
+        <v>8.91043906988522</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.018070619133024</v>
+        <v>8.018070619133015</v>
       </c>
       <c r="L3">
-        <v>13.85736849560455</v>
+        <v>13.85736849560453</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06201100567349</v>
+        <v>19.0620110056735</v>
       </c>
       <c r="C4">
-        <v>12.33496461754481</v>
+        <v>12.33496461754491</v>
       </c>
       <c r="D4">
-        <v>7.091315705347457</v>
+        <v>7.091315705347351</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.05375617132992</v>
+        <v>57.0537561713297</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.755161036262198</v>
+        <v>8.75516103626223</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.788193786477827</v>
+        <v>7.788193786477854</v>
       </c>
       <c r="L4">
-        <v>13.16314312114639</v>
+        <v>13.16314312114635</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62344162096031</v>
+        <v>18.62344162096021</v>
       </c>
       <c r="C5">
-        <v>12.06199539112881</v>
+        <v>12.06199539112857</v>
       </c>
       <c r="D5">
-        <v>6.990676945922051</v>
+        <v>6.9906769459219</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.04803859672582</v>
+        <v>56.0480385967258</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.692363448145764</v>
+        <v>8.69236344814567</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.694928357961968</v>
+        <v>7.694928357961977</v>
       </c>
       <c r="L5">
-        <v>12.87274524382141</v>
+        <v>12.87274524382139</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.54994822289664</v>
+        <v>18.54994822289659</v>
       </c>
       <c r="C6">
-        <v>12.01626968996757</v>
+        <v>12.01626968996772</v>
       </c>
       <c r="D6">
-        <v>6.973906236017411</v>
+        <v>6.973906236017322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.8801328966881</v>
+        <v>55.88013289668778</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.681964050848599</v>
+        <v>8.68196405084861</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.67946852158268</v>
+        <v>7.679468521582736</v>
       </c>
       <c r="L6">
-        <v>12.82406550566915</v>
+        <v>12.82406550566911</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0561409725991</v>
+        <v>19.05614097259921</v>
       </c>
       <c r="C7">
-        <v>12.33130986991794</v>
+        <v>12.33130986991823</v>
       </c>
       <c r="D7">
-        <v>7.089962461247552</v>
+        <v>7.089962461247522</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.0402536615769</v>
+        <v>57.04025366157717</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.754312224915815</v>
+        <v>8.754312224915852</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.786934224694376</v>
+        <v>7.786934224694361</v>
       </c>
       <c r="L7">
-        <v>13.15925736822067</v>
+        <v>13.15925736822078</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.19490074410328</v>
+        <v>21.19490074410342</v>
       </c>
       <c r="C8">
-        <v>13.66531841487847</v>
+        <v>13.66531841487855</v>
       </c>
       <c r="D8">
-        <v>7.593461771777524</v>
+        <v>7.593461771777549</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.077871486296264</v>
+        <v>9.077871486296297</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.264619906529274</v>
+        <v>8.26461990652925</v>
       </c>
       <c r="L8">
-        <v>14.57323241730931</v>
+        <v>14.57323241730939</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.07454028771117</v>
+        <v>25.07454028771108</v>
       </c>
       <c r="C9">
-        <v>16.10023007680545</v>
+        <v>16.10023007680539</v>
       </c>
       <c r="D9">
-        <v>8.552346994341537</v>
+        <v>8.552346994341487</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.34447918631859</v>
+        <v>71.34447918631834</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.730917892689726</v>
+        <v>9.730917892689689</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.211792512169628</v>
+        <v>9.211792512169657</v>
       </c>
       <c r="L9">
-        <v>17.12986794040557</v>
+        <v>17.12986794040554</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.7649593043007</v>
+        <v>27.76495930430077</v>
       </c>
       <c r="C10">
-        <v>17.80312252607947</v>
+        <v>17.80312252607929</v>
       </c>
       <c r="D10">
-        <v>9.244798363446897</v>
+        <v>9.244798363446886</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.95105181719532</v>
+        <v>77.95105181719522</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.22657427999896</v>
+        <v>10.22657427999891</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.08102590792348</v>
+        <v>10.08102590792349</v>
       </c>
       <c r="L10">
-        <v>18.89706537584384</v>
+        <v>18.89706537584392</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.96314973798854</v>
+        <v>28.9631497379884</v>
       </c>
       <c r="C11">
-        <v>18.5659942301024</v>
+        <v>18.56599423010256</v>
       </c>
       <c r="D11">
-        <v>9.559142647655026</v>
+        <v>9.559142647655081</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.92096178640104</v>
+        <v>80.92096178640088</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.45702188645923</v>
+        <v>10.45702188645926</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.50287317900822</v>
+        <v>10.50287317900816</v>
       </c>
       <c r="L11">
-        <v>19.68258520052818</v>
+        <v>19.68258520052811</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.41412042047436</v>
+        <v>29.41412042047456</v>
       </c>
       <c r="C12">
-        <v>18.85390147697099</v>
+        <v>18.85390147697096</v>
       </c>
       <c r="D12">
-        <v>9.678311050147636</v>
+        <v>9.678311050147743</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.04241752867809</v>
+        <v>82.0424175286788</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.54517614174391</v>
+        <v>10.54517614174405</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.66138141097417</v>
+        <v>10.6613814109741</v>
       </c>
       <c r="L12">
-        <v>19.97798989386333</v>
+        <v>19.97798989386338</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>29.31710138960257</v>
       </c>
       <c r="C13">
-        <v>18.79192576035511</v>
+        <v>18.79192576035508</v>
       </c>
       <c r="D13">
-        <v>9.652635764257973</v>
+        <v>9.65263576425785</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.80099726731314</v>
+        <v>81.80099726731258</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.52614771147639</v>
+        <v>10.52614771147632</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.62729347463777</v>
+        <v>10.62729347463769</v>
       </c>
       <c r="L13">
-        <v>19.91444988068525</v>
+        <v>19.91444988068522</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.000300560332</v>
+        <v>29.00030056033204</v>
       </c>
       <c r="C14">
-        <v>18.589695413538</v>
+        <v>18.58969541353799</v>
       </c>
       <c r="D14">
-        <v>9.568942503817025</v>
+        <v>9.568942503817087</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.01327555072125</v>
+        <v>81.01327555072132</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.46425540482283</v>
+        <v>10.46425540482275</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.51593662277855</v>
+        <v>10.51593662277853</v>
       </c>
       <c r="L14">
-        <v>19.70692568841884</v>
+        <v>19.70692568841885</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80592292370256</v>
+        <v>28.80592292370254</v>
       </c>
       <c r="C15">
-        <v>18.4657203881511</v>
+        <v>18.46572038815101</v>
       </c>
       <c r="D15">
-        <v>9.517703136597985</v>
+        <v>9.517703136597973</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.53042451361249</v>
+        <v>80.53042451361226</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.42646632270581</v>
+        <v>10.42646632270574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.44757609308152</v>
+        <v>10.44757609308153</v>
       </c>
       <c r="L15">
-        <v>19.57956311235758</v>
+        <v>19.57956311235754</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68621342360165</v>
+        <v>27.68621342360173</v>
       </c>
       <c r="C16">
-        <v>17.75308800995722</v>
+        <v>17.75308800995728</v>
       </c>
       <c r="D16">
-        <v>9.224260046282467</v>
+        <v>9.224260046282518</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.75639944679172</v>
+        <v>77.75639944679207</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.21162780354019</v>
+        <v>10.21162780354022</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.05326688410708</v>
+        <v>10.05326688410712</v>
       </c>
       <c r="L16">
-        <v>18.84540754943174</v>
+        <v>18.84540754943179</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.99333486345503</v>
+        <v>26.99333486345513</v>
       </c>
       <c r="C17">
-        <v>17.31335909903172</v>
+        <v>17.31335909903166</v>
       </c>
       <c r="D17">
-        <v>9.044216895631662</v>
+        <v>9.044216895631859</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.04674461513562</v>
+        <v>76.04674461513632</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.08121373751027</v>
+        <v>10.08121373751032</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.808836761830305</v>
+        <v>9.808836761830289</v>
       </c>
       <c r="L17">
-        <v>18.3907012975707</v>
+        <v>18.39070129757074</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.59232487660074</v>
+        <v>26.59232487660065</v>
       </c>
       <c r="C18">
-        <v>17.05927888879024</v>
+        <v>17.05927888879047</v>
       </c>
       <c r="D18">
-        <v>8.940582198860884</v>
+        <v>8.940582198860787</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.05991639851574</v>
+        <v>75.05991639851533</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.0066580109923</v>
+        <v>10.00665801099225</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.667224441320116</v>
+        <v>9.667224441320183</v>
       </c>
       <c r="L18">
-        <v>18.12739426997561</v>
+        <v>18.12739426997559</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.45609756668498</v>
+        <v>26.45609756668528</v>
       </c>
       <c r="C19">
-        <v>16.97303297985809</v>
+        <v>16.9730329798585</v>
       </c>
       <c r="D19">
-        <v>8.905473838004392</v>
+        <v>8.905473838004541</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.725145716239</v>
+        <v>74.72514571624015</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.981488327001573</v>
+        <v>9.981488327001701</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.619093235984295</v>
+        <v>9.61909323598427</v>
       </c>
       <c r="L19">
-        <v>18.03792258371786</v>
+        <v>18.03792258371797</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.06734393595649</v>
+        <v>27.06734393595639</v>
       </c>
       <c r="C20">
-        <v>17.36028429321218</v>
+        <v>17.36028429321243</v>
       </c>
       <c r="D20">
-        <v>9.063389487483631</v>
+        <v>9.063389487483665</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.0950483386868</v>
+        <v>10.09504833868681</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.83496064419699</v>
+        <v>9.834960644196958</v>
       </c>
       <c r="L20">
-        <v>18.43928505253896</v>
+        <v>18.4392850525389</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.09341903069723</v>
+        <v>29.09341903069712</v>
       </c>
       <c r="C21">
-        <v>18.64911534445897</v>
+        <v>18.649115344459</v>
       </c>
       <c r="D21">
-        <v>9.59351949783621</v>
+        <v>9.593519497836105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.24471698983211</v>
+        <v>81.24471698983139</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.48240892199286</v>
+        <v>10.48240892199279</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.54867573655527</v>
+        <v>10.54867573655525</v>
       </c>
       <c r="L21">
-        <v>19.76793103118911</v>
+        <v>19.76793103118906</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40209144693096</v>
+        <v>30.40209144693105</v>
       </c>
       <c r="C22">
-        <v>19.48620927633469</v>
+        <v>19.4862092763349</v>
       </c>
       <c r="D22">
-        <v>9.940921115859062</v>
+        <v>9.940921115859087</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.50546293249384</v>
+        <v>84.5054629324942</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.74087106403207</v>
+        <v>10.7408710640321</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.00810723976496</v>
+        <v>11.00810723976501</v>
       </c>
       <c r="L22">
-        <v>20.62467079351701</v>
+        <v>20.62467079351708</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.70468032658346</v>
+        <v>29.70468032658343</v>
       </c>
       <c r="C23">
-        <v>19.0396345945225</v>
+        <v>19.0396345945223</v>
       </c>
       <c r="D23">
-        <v>9.755328266670368</v>
+        <v>9.755328266670208</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.76593971422707</v>
+        <v>82.76593971422673</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.6023689047584</v>
+        <v>10.60236890475834</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.76342891079615</v>
+        <v>10.76342891079608</v>
       </c>
       <c r="L23">
-        <v>20.16824629985528</v>
+        <v>20.16824629985524</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.03389280278975</v>
+        <v>27.0338928027898</v>
       </c>
       <c r="C24">
-        <v>17.33907343391644</v>
+        <v>17.33907343391633</v>
       </c>
       <c r="D24">
-        <v>9.054721965869271</v>
+        <v>9.054721965869257</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.14666306112264</v>
+        <v>76.14666306112275</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.08879241644483</v>
+        <v>10.08879241644486</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.823153441661422</v>
+        <v>9.823153441661409</v>
       </c>
       <c r="L24">
-        <v>18.41732626778408</v>
+        <v>18.41732626778411</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.05571051180501</v>
+        <v>24.05571051180517</v>
       </c>
       <c r="C25">
-        <v>15.45863809148687</v>
+        <v>15.45863809148701</v>
       </c>
       <c r="D25">
-        <v>8.295570042671095</v>
+        <v>8.295570042671192</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87007150287594</v>
+        <v>68.87007150287609</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.551875635039627</v>
+        <v>9.551875635039735</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.95443330267587</v>
+        <v>8.954433302675884</v>
       </c>
       <c r="L25">
-        <v>16.45943677547367</v>
+        <v>16.45943677547377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.75211977021939</v>
+        <v>21.75211977021945</v>
       </c>
       <c r="C2">
-        <v>14.01374435825843</v>
+        <v>14.01374435825854</v>
       </c>
       <c r="D2">
-        <v>7.727832912286413</v>
+        <v>7.727832912286334</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.166669906212718</v>
+        <v>9.166669906212634</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.394781419930492</v>
+        <v>8.394781419930474</v>
       </c>
       <c r="L2">
-        <v>14.94106074149907</v>
+        <v>14.94106074149916</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11142704406795</v>
+        <v>20.11142704406793</v>
       </c>
       <c r="C3">
-        <v>12.9888981814134</v>
+        <v>12.98889818141356</v>
       </c>
       <c r="D3">
-        <v>7.335853141180924</v>
+        <v>7.33585314118095</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.48467842613455</v>
+        <v>59.48467842613439</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.91043906988522</v>
+        <v>8.9104390698853</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.018070619133015</v>
+        <v>8.018070619133024</v>
       </c>
       <c r="L3">
-        <v>13.85736849560453</v>
+        <v>13.85736849560455</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0620110056735</v>
+        <v>19.06201100567349</v>
       </c>
       <c r="C4">
-        <v>12.33496461754491</v>
+        <v>12.33496461754481</v>
       </c>
       <c r="D4">
-        <v>7.091315705347351</v>
+        <v>7.091315705347457</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.0537561713297</v>
+        <v>57.05375617132992</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.75516103626223</v>
+        <v>8.755161036262198</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.788193786477854</v>
+        <v>7.788193786477827</v>
       </c>
       <c r="L4">
-        <v>13.16314312114635</v>
+        <v>13.16314312114639</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62344162096021</v>
+        <v>18.62344162096031</v>
       </c>
       <c r="C5">
-        <v>12.06199539112857</v>
+        <v>12.06199539112881</v>
       </c>
       <c r="D5">
-        <v>6.9906769459219</v>
+        <v>6.990676945922051</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.0480385967258</v>
+        <v>56.04803859672582</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.69236344814567</v>
+        <v>8.692363448145764</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.694928357961977</v>
+        <v>7.694928357961968</v>
       </c>
       <c r="L5">
-        <v>12.87274524382139</v>
+        <v>12.87274524382141</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.54994822289659</v>
+        <v>18.54994822289664</v>
       </c>
       <c r="C6">
-        <v>12.01626968996772</v>
+        <v>12.01626968996757</v>
       </c>
       <c r="D6">
-        <v>6.973906236017322</v>
+        <v>6.973906236017411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.88013289668778</v>
+        <v>55.8801328966881</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.68196405084861</v>
+        <v>8.681964050848599</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.679468521582736</v>
+        <v>7.67946852158268</v>
       </c>
       <c r="L6">
-        <v>12.82406550566911</v>
+        <v>12.82406550566915</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05614097259921</v>
+        <v>19.0561409725991</v>
       </c>
       <c r="C7">
-        <v>12.33130986991823</v>
+        <v>12.33130986991794</v>
       </c>
       <c r="D7">
-        <v>7.089962461247522</v>
+        <v>7.089962461247552</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.04025366157717</v>
+        <v>57.0402536615769</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.754312224915852</v>
+        <v>8.754312224915815</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.786934224694361</v>
+        <v>7.786934224694376</v>
       </c>
       <c r="L7">
-        <v>13.15925736822078</v>
+        <v>13.15925736822067</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.19490074410342</v>
+        <v>21.19490074410328</v>
       </c>
       <c r="C8">
-        <v>13.66531841487855</v>
+        <v>13.66531841487847</v>
       </c>
       <c r="D8">
-        <v>7.593461771777549</v>
+        <v>7.593461771777524</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.077871486296297</v>
+        <v>9.077871486296264</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.26461990652925</v>
+        <v>8.264619906529274</v>
       </c>
       <c r="L8">
-        <v>14.57323241730939</v>
+        <v>14.57323241730931</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.07454028771108</v>
+        <v>25.07454028771117</v>
       </c>
       <c r="C9">
-        <v>16.10023007680539</v>
+        <v>16.10023007680545</v>
       </c>
       <c r="D9">
-        <v>8.552346994341487</v>
+        <v>8.552346994341537</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.34447918631834</v>
+        <v>71.34447918631859</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.730917892689689</v>
+        <v>9.730917892689726</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.211792512169657</v>
+        <v>9.211792512169628</v>
       </c>
       <c r="L9">
-        <v>17.12986794040554</v>
+        <v>17.12986794040557</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76495930430077</v>
+        <v>27.7649593043007</v>
       </c>
       <c r="C10">
-        <v>17.80312252607929</v>
+        <v>17.80312252607947</v>
       </c>
       <c r="D10">
-        <v>9.244798363446886</v>
+        <v>9.244798363446897</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.95105181719522</v>
+        <v>77.95105181719532</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.22657427999891</v>
+        <v>10.22657427999896</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.08102590792349</v>
+        <v>10.08102590792348</v>
       </c>
       <c r="L10">
-        <v>18.89706537584392</v>
+        <v>18.89706537584384</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.9631497379884</v>
+        <v>28.96314973798854</v>
       </c>
       <c r="C11">
-        <v>18.56599423010256</v>
+        <v>18.5659942301024</v>
       </c>
       <c r="D11">
-        <v>9.559142647655081</v>
+        <v>9.559142647655026</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.92096178640088</v>
+        <v>80.92096178640104</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.45702188645926</v>
+        <v>10.45702188645923</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.50287317900816</v>
+        <v>10.50287317900822</v>
       </c>
       <c r="L11">
-        <v>19.68258520052811</v>
+        <v>19.68258520052818</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.41412042047456</v>
+        <v>29.41412042047436</v>
       </c>
       <c r="C12">
-        <v>18.85390147697096</v>
+        <v>18.85390147697099</v>
       </c>
       <c r="D12">
-        <v>9.678311050147743</v>
+        <v>9.678311050147636</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.0424175286788</v>
+        <v>82.04241752867809</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.54517614174405</v>
+        <v>10.54517614174391</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.6613814109741</v>
+        <v>10.66138141097417</v>
       </c>
       <c r="L12">
-        <v>19.97798989386338</v>
+        <v>19.97798989386333</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>29.31710138960257</v>
       </c>
       <c r="C13">
-        <v>18.79192576035508</v>
+        <v>18.79192576035511</v>
       </c>
       <c r="D13">
-        <v>9.65263576425785</v>
+        <v>9.652635764257973</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.80099726731258</v>
+        <v>81.80099726731314</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.52614771147632</v>
+        <v>10.52614771147639</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.62729347463769</v>
+        <v>10.62729347463777</v>
       </c>
       <c r="L13">
-        <v>19.91444988068522</v>
+        <v>19.91444988068525</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.00030056033204</v>
+        <v>29.000300560332</v>
       </c>
       <c r="C14">
-        <v>18.58969541353799</v>
+        <v>18.589695413538</v>
       </c>
       <c r="D14">
-        <v>9.568942503817087</v>
+        <v>9.568942503817025</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.01327555072132</v>
+        <v>81.01327555072125</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.46425540482275</v>
+        <v>10.46425540482283</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.51593662277853</v>
+        <v>10.51593662277855</v>
       </c>
       <c r="L14">
-        <v>19.70692568841885</v>
+        <v>19.70692568841884</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80592292370254</v>
+        <v>28.80592292370256</v>
       </c>
       <c r="C15">
-        <v>18.46572038815101</v>
+        <v>18.4657203881511</v>
       </c>
       <c r="D15">
-        <v>9.517703136597973</v>
+        <v>9.517703136597985</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.53042451361226</v>
+        <v>80.53042451361249</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.42646632270574</v>
+        <v>10.42646632270581</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.44757609308153</v>
+        <v>10.44757609308152</v>
       </c>
       <c r="L15">
-        <v>19.57956311235754</v>
+        <v>19.57956311235758</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68621342360173</v>
+        <v>27.68621342360165</v>
       </c>
       <c r="C16">
-        <v>17.75308800995728</v>
+        <v>17.75308800995722</v>
       </c>
       <c r="D16">
-        <v>9.224260046282518</v>
+        <v>9.224260046282467</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.75639944679207</v>
+        <v>77.75639944679172</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.21162780354022</v>
+        <v>10.21162780354019</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.05326688410712</v>
+        <v>10.05326688410708</v>
       </c>
       <c r="L16">
-        <v>18.84540754943179</v>
+        <v>18.84540754943174</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.99333486345513</v>
+        <v>26.99333486345503</v>
       </c>
       <c r="C17">
-        <v>17.31335909903166</v>
+        <v>17.31335909903172</v>
       </c>
       <c r="D17">
-        <v>9.044216895631859</v>
+        <v>9.044216895631662</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.04674461513632</v>
+        <v>76.04674461513562</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.08121373751032</v>
+        <v>10.08121373751027</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.808836761830289</v>
+        <v>9.808836761830305</v>
       </c>
       <c r="L17">
-        <v>18.39070129757074</v>
+        <v>18.3907012975707</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.59232487660065</v>
+        <v>26.59232487660074</v>
       </c>
       <c r="C18">
-        <v>17.05927888879047</v>
+        <v>17.05927888879024</v>
       </c>
       <c r="D18">
-        <v>8.940582198860787</v>
+        <v>8.940582198860884</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.05991639851533</v>
+        <v>75.05991639851574</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.00665801099225</v>
+        <v>10.0066580109923</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.667224441320183</v>
+        <v>9.667224441320116</v>
       </c>
       <c r="L18">
-        <v>18.12739426997559</v>
+        <v>18.12739426997561</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.45609756668528</v>
+        <v>26.45609756668498</v>
       </c>
       <c r="C19">
-        <v>16.9730329798585</v>
+        <v>16.97303297985809</v>
       </c>
       <c r="D19">
-        <v>8.905473838004541</v>
+        <v>8.905473838004392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.72514571624015</v>
+        <v>74.725145716239</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.981488327001701</v>
+        <v>9.981488327001573</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.61909323598427</v>
+        <v>9.619093235984295</v>
       </c>
       <c r="L19">
-        <v>18.03792258371797</v>
+        <v>18.03792258371786</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.06734393595639</v>
+        <v>27.06734393595649</v>
       </c>
       <c r="C20">
-        <v>17.36028429321243</v>
+        <v>17.36028429321218</v>
       </c>
       <c r="D20">
-        <v>9.063389487483665</v>
+        <v>9.063389487483631</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.09504833868681</v>
+        <v>10.0950483386868</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.834960644196958</v>
+        <v>9.83496064419699</v>
       </c>
       <c r="L20">
-        <v>18.4392850525389</v>
+        <v>18.43928505253896</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.09341903069712</v>
+        <v>29.09341903069723</v>
       </c>
       <c r="C21">
-        <v>18.649115344459</v>
+        <v>18.64911534445897</v>
       </c>
       <c r="D21">
-        <v>9.593519497836105</v>
+        <v>9.59351949783621</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.24471698983139</v>
+        <v>81.24471698983211</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.48240892199279</v>
+        <v>10.48240892199286</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.54867573655525</v>
+        <v>10.54867573655527</v>
       </c>
       <c r="L21">
-        <v>19.76793103118906</v>
+        <v>19.76793103118911</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40209144693105</v>
+        <v>30.40209144693096</v>
       </c>
       <c r="C22">
-        <v>19.4862092763349</v>
+        <v>19.48620927633469</v>
       </c>
       <c r="D22">
-        <v>9.940921115859087</v>
+        <v>9.940921115859062</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.5054629324942</v>
+        <v>84.50546293249384</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.7408710640321</v>
+        <v>10.74087106403207</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.00810723976501</v>
+        <v>11.00810723976496</v>
       </c>
       <c r="L22">
-        <v>20.62467079351708</v>
+        <v>20.62467079351701</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.70468032658343</v>
+        <v>29.70468032658346</v>
       </c>
       <c r="C23">
-        <v>19.0396345945223</v>
+        <v>19.0396345945225</v>
       </c>
       <c r="D23">
-        <v>9.755328266670208</v>
+        <v>9.755328266670368</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.76593971422673</v>
+        <v>82.76593971422707</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.60236890475834</v>
+        <v>10.6023689047584</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.76342891079608</v>
+        <v>10.76342891079615</v>
       </c>
       <c r="L23">
-        <v>20.16824629985524</v>
+        <v>20.16824629985528</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.0338928027898</v>
+        <v>27.03389280278975</v>
       </c>
       <c r="C24">
-        <v>17.33907343391633</v>
+        <v>17.33907343391644</v>
       </c>
       <c r="D24">
-        <v>9.054721965869257</v>
+        <v>9.054721965869271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.14666306112275</v>
+        <v>76.14666306112264</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.08879241644486</v>
+        <v>10.08879241644483</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.823153441661409</v>
+        <v>9.823153441661422</v>
       </c>
       <c r="L24">
-        <v>18.41732626778411</v>
+        <v>18.41732626778408</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.05571051180517</v>
+        <v>24.05571051180501</v>
       </c>
       <c r="C25">
-        <v>15.45863809148701</v>
+        <v>15.45863809148687</v>
       </c>
       <c r="D25">
-        <v>8.295570042671192</v>
+        <v>8.295570042671095</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87007150287609</v>
+        <v>68.87007150287594</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.551875635039735</v>
+        <v>9.551875635039627</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.954433302675884</v>
+        <v>8.95443330267587</v>
       </c>
       <c r="L25">
-        <v>16.45943677547377</v>
+        <v>16.45943677547367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.75211977021945</v>
+        <v>21.61724918545053</v>
       </c>
       <c r="C2">
-        <v>14.01374435825854</v>
+        <v>13.81530032580281</v>
       </c>
       <c r="D2">
-        <v>7.727832912286334</v>
+        <v>7.815257881281309</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.34606163943953</v>
+        <v>63.44312265341879</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.063386351530964</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.166669906212634</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.116310326132854</v>
       </c>
       <c r="K2">
-        <v>8.394781419930474</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.94106074149916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.371583532156151</v>
+      </c>
+      <c r="M2">
+        <v>14.86552061879525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11142704406793</v>
+        <v>19.98699827142212</v>
       </c>
       <c r="C3">
-        <v>12.98889818141356</v>
+        <v>12.79424556679398</v>
       </c>
       <c r="D3">
-        <v>7.33585314118095</v>
+        <v>7.431802477427525</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.48467842613439</v>
+        <v>59.62262016061701</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.078635702122583</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.9104390698853</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.859318431309999</v>
       </c>
       <c r="K3">
-        <v>8.018070619133024</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.85736849560455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.994407331511012</v>
+      </c>
+      <c r="M3">
+        <v>13.78481154464769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06201100567349</v>
+        <v>18.94451169067571</v>
       </c>
       <c r="C4">
-        <v>12.33496461754481</v>
+        <v>12.14251005362407</v>
       </c>
       <c r="D4">
-        <v>7.091315705347457</v>
+        <v>7.192911371840287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.05375617132992</v>
+        <v>57.21903224414498</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.08811257667116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.755161036262198</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.703487952611322</v>
       </c>
       <c r="K4">
-        <v>7.788193786477827</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.16314312114639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>7.764137343867719</v>
+      </c>
+      <c r="M4">
+        <v>13.0923824800694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62344162096031</v>
+        <v>18.50891320967589</v>
       </c>
       <c r="C5">
-        <v>12.06199539112881</v>
+        <v>11.8704036296224</v>
       </c>
       <c r="D5">
-        <v>6.990676945922051</v>
+        <v>7.094678605644873</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.04803859672582</v>
+        <v>56.2250477875636</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.092009577742309</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.692363448145764</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.640445810671206</v>
       </c>
       <c r="K5">
-        <v>7.694928357961968</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.87274524382141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>7.670686354159509</v>
+      </c>
+      <c r="M5">
+        <v>12.80270961591972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.54994822289664</v>
+        <v>18.43592254145175</v>
       </c>
       <c r="C6">
-        <v>12.01626968996757</v>
+        <v>11.82481916880633</v>
       </c>
       <c r="D6">
-        <v>6.973906236017411</v>
+        <v>7.078313773847649</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.8801328966881</v>
+        <v>56.05912714983252</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.09265896813722</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.681964050848599</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.63000468854068</v>
       </c>
       <c r="K6">
-        <v>7.67946852158268</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.82406550566915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.655194223981435</v>
+      </c>
+      <c r="M6">
+        <v>12.7541498840042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0561409725991</v>
+        <v>18.9386811050707</v>
       </c>
       <c r="C7">
-        <v>12.33130986991794</v>
+        <v>12.13886707687502</v>
       </c>
       <c r="D7">
-        <v>7.089962461247552</v>
+        <v>7.191590149365106</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.0402536615769</v>
+        <v>57.20568552444389</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.088164982808039</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.754312224915815</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.702635919225822</v>
       </c>
       <c r="K7">
-        <v>7.786934224694376</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.15925736822067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>7.7628753799507</v>
+      </c>
+      <c r="M7">
+        <v>13.08850653130186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.19490074410328</v>
+        <v>21.06353255418317</v>
       </c>
       <c r="C8">
-        <v>13.66531841487847</v>
+        <v>13.46820897440969</v>
       </c>
       <c r="D8">
-        <v>7.593461771777524</v>
+        <v>7.683741528667992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.02702968382275</v>
+        <v>62.13774315169394</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.068624883425155</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.077871486296264</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.027268389524542</v>
       </c>
       <c r="K8">
-        <v>8.264619906529274</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.57323241730931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.241284834198524</v>
+      </c>
+      <c r="M8">
+        <v>14.49872961803394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.07454028771117</v>
+        <v>24.91932289803794</v>
       </c>
       <c r="C9">
-        <v>16.10023007680545</v>
+        <v>15.8928600214962</v>
       </c>
       <c r="D9">
-        <v>8.552346994341537</v>
+        <v>8.623527675339119</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.34447918631859</v>
+        <v>71.36402867781038</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.030869544070031</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.730917892689726</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.681648066639532</v>
       </c>
       <c r="K9">
-        <v>9.211792512169628</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.12986794040557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.188947534094321</v>
+      </c>
+      <c r="M9">
+        <v>17.04759585224528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.7649593043007</v>
+        <v>27.59337215617223</v>
       </c>
       <c r="C10">
-        <v>17.80312252607947</v>
+        <v>17.58728163158202</v>
       </c>
       <c r="D10">
-        <v>9.244798363446897</v>
+        <v>9.303629897777835</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.95105181719532</v>
+        <v>77.91105444748349</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.002910951171089</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.22657427999896</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.17766311113613</v>
       </c>
       <c r="K10">
-        <v>10.08102590792348</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.89706537584384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.07315939188288</v>
+      </c>
+      <c r="M10">
+        <v>18.80856712542131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.96314973798854</v>
+        <v>28.78413857718193</v>
       </c>
       <c r="C11">
-        <v>18.5659942301024</v>
+        <v>18.34598954461355</v>
       </c>
       <c r="D11">
-        <v>9.559142647655026</v>
+        <v>9.612645053850784</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.92096178640104</v>
+        <v>80.85486467828504</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.989985431329693</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.45702188645923</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.40809697432363</v>
       </c>
       <c r="K11">
-        <v>10.50287317900822</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.68258520052818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>10.49374155996184</v>
+      </c>
+      <c r="M11">
+        <v>19.59105037081504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.41412042047436</v>
+        <v>29.23227806716492</v>
       </c>
       <c r="C12">
-        <v>18.85390147697099</v>
+        <v>18.63226159847183</v>
       </c>
       <c r="D12">
-        <v>9.678311050147636</v>
+        <v>9.729828476438735</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.04241752867809</v>
+        <v>81.96651564031612</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.985044420988941</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.54517614174391</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.49621598386724</v>
       </c>
       <c r="K12">
-        <v>10.66138141097417</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19.97798989386333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.65175222975356</v>
+      </c>
+      <c r="M12">
+        <v>19.88526481188274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.31710138960257</v>
+        <v>29.13587009451396</v>
       </c>
       <c r="C13">
-        <v>18.79192576035511</v>
+        <v>18.57064092458828</v>
       </c>
       <c r="D13">
-        <v>9.652635764257973</v>
+        <v>9.70457937914157</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.80099726731314</v>
+        <v>81.7272046740584</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.986110922990956</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.52614771147639</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.47719656738762</v>
       </c>
       <c r="K13">
-        <v>10.62729347463777</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.91444988068525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.61777237570902</v>
+      </c>
+      <c r="M13">
+        <v>19.82198315009087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.000300560332</v>
+        <v>28.82105702544867</v>
       </c>
       <c r="C14">
-        <v>18.589695413538</v>
+        <v>18.36955746844782</v>
       </c>
       <c r="D14">
-        <v>9.568942503817025</v>
+        <v>9.622280998149378</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.01327555072125</v>
+        <v>80.94637063327309</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.989579969307885</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.46425540482283</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.41532822589769</v>
       </c>
       <c r="K14">
-        <v>10.51593662277855</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.70692568841884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>10.50676447537695</v>
+      </c>
+      <c r="M14">
+        <v>19.61529382068771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80592292370256</v>
+        <v>28.6278935848963</v>
       </c>
       <c r="C15">
-        <v>18.4657203881511</v>
+        <v>18.24627683878304</v>
       </c>
       <c r="D15">
-        <v>9.517703136597985</v>
+        <v>9.571900052067363</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.53042451361249</v>
+        <v>80.46774662558221</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.991698264150784</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.42646632270581</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.37754975323577</v>
       </c>
       <c r="K15">
-        <v>10.44757609308152</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.57956311235758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>10.43861509755287</v>
+      </c>
+      <c r="M15">
+        <v>19.48843697876523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68621342360165</v>
+        <v>27.51511004179514</v>
       </c>
       <c r="C16">
-        <v>17.75308800995722</v>
+        <v>17.53751191019047</v>
       </c>
       <c r="D16">
-        <v>9.224260046282467</v>
+        <v>9.283444981423807</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.75639944679172</v>
+        <v>77.71812250170956</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.003750154938722</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.21162780354019</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.1627136061891</v>
       </c>
       <c r="K16">
-        <v>10.05326688410708</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.84540754943174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.04548077682866</v>
+      </c>
+      <c r="M16">
+        <v>18.75710277352833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.99333486345503</v>
+        <v>26.82647114516379</v>
       </c>
       <c r="C17">
-        <v>17.31335909903172</v>
+        <v>17.10006767492168</v>
       </c>
       <c r="D17">
-        <v>9.044216895631662</v>
+        <v>9.10653032462243</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.04674461513562</v>
+        <v>76.02364860584817</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.011079791759678</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.08121373751027</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.03225276411695</v>
       </c>
       <c r="K17">
-        <v>9.808836761830305</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.3907012975707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.801744525991312</v>
+      </c>
+      <c r="M17">
+        <v>18.3040682212314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.59232487660074</v>
+        <v>26.42790344587966</v>
       </c>
       <c r="C18">
-        <v>17.05927888879024</v>
+        <v>16.84727340581042</v>
       </c>
       <c r="D18">
-        <v>8.940582198860884</v>
+        <v>9.004722824432175</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.05991639851574</v>
+        <v>75.04564949874742</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.015277292780786</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.0066580109923</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.957653814467708</v>
       </c>
       <c r="K18">
-        <v>9.667224441320116</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.12739426997561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.660523011034668</v>
+      </c>
+      <c r="M18">
+        <v>18.04170431137803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.45609756668498</v>
+        <v>26.29250432385635</v>
       </c>
       <c r="C19">
-        <v>16.97303297985809</v>
+        <v>16.76145840646153</v>
       </c>
       <c r="D19">
-        <v>8.905473838004392</v>
+        <v>8.970238116125902</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.725145716239</v>
+        <v>74.7138866739936</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.016695801568521</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.981488327001573</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.932466814974159</v>
       </c>
       <c r="K19">
-        <v>9.619093235984295</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.03792258371786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.612522837437181</v>
+      </c>
+      <c r="M19">
+        <v>17.95254906981591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.06734393595649</v>
+        <v>26.90002866259433</v>
       </c>
       <c r="C20">
-        <v>17.36028429321218</v>
+        <v>17.14675265925593</v>
       </c>
       <c r="D20">
-        <v>9.063389487483631</v>
+        <v>9.125367063764344</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.22908826115915</v>
+        <v>76.20436655118145</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.010301544216246</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.0950483386868</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.04609406324474</v>
       </c>
       <c r="K20">
-        <v>9.83496064419699</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.43928505253896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.82779543576145</v>
+      </c>
+      <c r="M20">
+        <v>18.35247599407642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.09341903069723</v>
+        <v>28.91359239271808</v>
       </c>
       <c r="C21">
-        <v>18.64911534445897</v>
+        <v>18.42864225150482</v>
       </c>
       <c r="D21">
-        <v>9.59351949783621</v>
+        <v>9.646447463229963</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.24471698983211</v>
+        <v>81.17578743401147</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.988562435832179</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.48240892199286</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.43347556213483</v>
       </c>
       <c r="K21">
-        <v>10.54867573655527</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.76793103118911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>10.53940164529347</v>
+      </c>
+      <c r="M21">
+        <v>19.67605514496549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40209144693096</v>
+        <v>30.21395697517838</v>
       </c>
       <c r="C22">
-        <v>19.48620927633469</v>
+        <v>19.26084840059016</v>
       </c>
       <c r="D22">
-        <v>9.940921115859062</v>
+        <v>9.988121672106347</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.50546293249384</v>
+        <v>84.40805897244013</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.974073730691075</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.74087106403207</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.6917731250015</v>
       </c>
       <c r="K22">
-        <v>11.00810723976496</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.62467079351701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.99734335546374</v>
+      </c>
+      <c r="M22">
+        <v>20.52924019999949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.70468032658346</v>
+        <v>29.5210010331488</v>
       </c>
       <c r="C23">
-        <v>19.0396345945225</v>
+        <v>18.81692052502881</v>
       </c>
       <c r="D23">
-        <v>9.755328266670368</v>
+        <v>9.805571911986817</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.76593971422707</v>
+        <v>82.68371960733447</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.981838812829641</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.6023689047584</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.55337698820481</v>
       </c>
       <c r="K23">
-        <v>10.76342891079615</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.16824629985528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.75347254109001</v>
+      </c>
+      <c r="M23">
+        <v>20.07473981427272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.03389280278975</v>
+        <v>26.86678166070353</v>
       </c>
       <c r="C24">
-        <v>17.33907343391644</v>
+        <v>17.12565048366939</v>
       </c>
       <c r="D24">
-        <v>9.054721965869271</v>
+        <v>9.116851291518824</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.14666306112264</v>
+        <v>76.12267601002343</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.010653439821001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.08879241644483</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.03983516339678</v>
       </c>
       <c r="K24">
-        <v>9.823153441661422</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.41732626778408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.816021249026408</v>
+      </c>
+      <c r="M24">
+        <v>18.33059682601646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.05571051180501</v>
+        <v>23.90667288736579</v>
       </c>
       <c r="C25">
-        <v>15.45863809148687</v>
+        <v>15.25418089269395</v>
       </c>
       <c r="D25">
-        <v>8.295570042671095</v>
+        <v>8.371600481956236</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87007150287594</v>
+        <v>68.91278910229428</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.041075547659268</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.551875635039627</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.502341965162824</v>
       </c>
       <c r="K25">
-        <v>8.95443330267587</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.45943677547367</v>
+        <v>8.931566731771179</v>
+      </c>
+      <c r="M25">
+        <v>16.37933308868828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.61724918545053</v>
+        <v>26.33996098696558</v>
       </c>
       <c r="C2">
-        <v>13.81530032580281</v>
+        <v>14.30220043543909</v>
       </c>
       <c r="D2">
-        <v>7.815257881281309</v>
+        <v>3.686137666272703</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.44312265341879</v>
+        <v>32.11417620839662</v>
       </c>
       <c r="G2">
-        <v>2.063386351530964</v>
+        <v>2.063641360099251</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.116310326132854</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.371583532156151</v>
+        <v>8.105963816407387</v>
       </c>
       <c r="M2">
-        <v>14.86552061879525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.04224567533908</v>
+      </c>
+      <c r="O2">
+        <v>24.98939146941329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.98699827142212</v>
+        <v>24.4740803111363</v>
       </c>
       <c r="C3">
-        <v>12.79424556679398</v>
+        <v>13.43989780768336</v>
       </c>
       <c r="D3">
-        <v>7.431802477427525</v>
+        <v>3.791100867725657</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.62262016061701</v>
+        <v>30.60333745588954</v>
       </c>
       <c r="G3">
-        <v>2.078635702122583</v>
+        <v>2.074085414185007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.859318431309999</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.994407331511012</v>
+        <v>7.810334012749348</v>
       </c>
       <c r="M3">
-        <v>13.78481154464769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.32641748787931</v>
+      </c>
+      <c r="O3">
+        <v>23.99776939974894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94451169067571</v>
+        <v>23.27093267344299</v>
       </c>
       <c r="C4">
-        <v>12.14251005362407</v>
+        <v>12.88593193555946</v>
       </c>
       <c r="D4">
-        <v>7.192911371840287</v>
+        <v>3.856352212192696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.21903224414498</v>
+        <v>29.6781017490322</v>
       </c>
       <c r="G4">
-        <v>2.08811257667116</v>
+        <v>2.08064423089019</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.703487952611322</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.764137343867719</v>
+        <v>7.629908895124149</v>
       </c>
       <c r="M4">
-        <v>13.0923824800694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.5035393176511</v>
+      </c>
+      <c r="O4">
+        <v>23.39988967020352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50891320967589</v>
+        <v>22.79955955895004</v>
       </c>
       <c r="C5">
-        <v>11.8704036296224</v>
+        <v>12.6540148976769</v>
       </c>
       <c r="D5">
-        <v>7.094678605644873</v>
+        <v>3.883165330320341</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.2250477875636</v>
+        <v>29.30203422989107</v>
       </c>
       <c r="G5">
-        <v>2.092009577742309</v>
+        <v>2.083356232060725</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.640445810671206</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.670686354159509</v>
+        <v>7.556731327262141</v>
       </c>
       <c r="M5">
-        <v>12.80270961591972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.57643159049467</v>
+      </c>
+      <c r="O5">
+        <v>23.15918567975751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43592254145175</v>
+        <v>22.72106136400534</v>
       </c>
       <c r="C6">
-        <v>11.82481916880633</v>
+        <v>12.61513273391793</v>
       </c>
       <c r="D6">
-        <v>7.078313773847649</v>
+        <v>3.88763166738567</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.05912714983252</v>
+        <v>29.23965930214398</v>
       </c>
       <c r="G6">
-        <v>2.09265896813722</v>
+        <v>2.083808996299934</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.63000468854068</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.655194223981435</v>
+        <v>7.544603497991813</v>
       </c>
       <c r="M6">
-        <v>12.7541498840042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.5885798180362</v>
+      </c>
+      <c r="O6">
+        <v>23.11939996315402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9386811050707</v>
+        <v>23.26418279359503</v>
       </c>
       <c r="C7">
-        <v>12.13886707687502</v>
+        <v>12.88282920301288</v>
       </c>
       <c r="D7">
-        <v>7.191590149365106</v>
+        <v>3.856712894904372</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.20568552444389</v>
+        <v>29.67302549634893</v>
       </c>
       <c r="G7">
-        <v>2.088164982808039</v>
+        <v>2.080680643894991</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.702635919225822</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.7628753799507</v>
+        <v>7.628920489207486</v>
       </c>
       <c r="M7">
-        <v>13.08850653130186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.50451941424426</v>
+      </c>
+      <c r="O7">
+        <v>23.39663130972254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06353255418317</v>
+        <v>25.70844095177658</v>
       </c>
       <c r="C8">
-        <v>13.46820897440969</v>
+        <v>14.00995256805059</v>
       </c>
       <c r="D8">
-        <v>7.683741528667992</v>
+        <v>3.722174809040181</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.13774315169394</v>
+        <v>31.59293049208089</v>
       </c>
       <c r="G8">
-        <v>2.068624883425155</v>
+        <v>2.0672137003796</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.027268389524542</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.241284834198524</v>
+        <v>8.003844260621806</v>
       </c>
       <c r="M8">
-        <v>14.49872961803394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.1397112932799</v>
+      </c>
+      <c r="O8">
+        <v>24.64529752689423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.91932289803794</v>
+        <v>30.05354003460714</v>
       </c>
       <c r="C9">
-        <v>15.8928600214962</v>
+        <v>16.02743572378141</v>
       </c>
       <c r="D9">
-        <v>8.623527675339119</v>
+        <v>3.463766783947195</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.36402867781038</v>
+        <v>35.36536979425352</v>
       </c>
       <c r="G9">
-        <v>2.030869544070031</v>
+        <v>2.041840984181094</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.681648066639532</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.188947534094321</v>
+        <v>8.745130927726388</v>
       </c>
       <c r="M9">
-        <v>17.04759585224528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.44286649259528</v>
+      </c>
+      <c r="O9">
+        <v>27.17522193926236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.59337215617223</v>
+        <v>32.98610148117235</v>
       </c>
       <c r="C10">
-        <v>17.58728163158202</v>
+        <v>17.39616436174468</v>
       </c>
       <c r="D10">
-        <v>9.303629897777835</v>
+        <v>3.275892187021651</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.91105444748349</v>
+        <v>38.13267102589163</v>
       </c>
       <c r="G10">
-        <v>2.002910951171089</v>
+        <v>2.023639309275945</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.17766311113613</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.07315939188288</v>
+        <v>9.290946724368162</v>
       </c>
       <c r="M10">
-        <v>18.80856712542131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.93866631791363</v>
+      </c>
+      <c r="O10">
+        <v>29.07935798423069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.78413857718193</v>
+        <v>34.26735384977723</v>
       </c>
       <c r="C11">
-        <v>18.34598954461355</v>
+        <v>17.99552870926356</v>
       </c>
       <c r="D11">
-        <v>9.612645053850784</v>
+        <v>3.190579127168756</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.85486467828504</v>
+        <v>39.39083698781026</v>
       </c>
       <c r="G11">
-        <v>1.989985431329693</v>
+        <v>2.015405296293297</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.40809697432363</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.49374155996184</v>
+        <v>9.539297756991738</v>
       </c>
       <c r="M11">
-        <v>19.59105037081504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.71015641148715</v>
+      </c>
+      <c r="O11">
+        <v>29.95580513001614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.23227806716492</v>
+        <v>34.74528314400762</v>
       </c>
       <c r="C12">
-        <v>18.63226159847183</v>
+        <v>18.21928738733358</v>
       </c>
       <c r="D12">
-        <v>9.729828476438735</v>
+        <v>3.158275681392812</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.96651564031612</v>
+        <v>39.86732856664943</v>
       </c>
       <c r="G12">
-        <v>1.985044420988941</v>
+        <v>2.012289215975365</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.49621598386724</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.65175222975356</v>
+        <v>9.633354931125547</v>
       </c>
       <c r="M12">
-        <v>19.88526481188274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.62367742641956</v>
+      </c>
+      <c r="O12">
+        <v>30.28928762302586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.13587009451396</v>
+        <v>34.6426692532028</v>
       </c>
       <c r="C13">
-        <v>18.57064092458828</v>
+        <v>18.17123709749223</v>
       </c>
       <c r="D13">
-        <v>9.70457937914157</v>
+        <v>3.16523294710024</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.7272046740584</v>
+        <v>39.76470163205916</v>
       </c>
       <c r="G13">
-        <v>1.986110922990956</v>
+        <v>2.012960313069927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.47719656738762</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.61777237570902</v>
+        <v>9.613097231436681</v>
       </c>
       <c r="M13">
-        <v>19.82198315009087</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.64230101651966</v>
+      </c>
+      <c r="O13">
+        <v>30.21739268950342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.82105702544867</v>
+        <v>34.30681665310549</v>
       </c>
       <c r="C14">
-        <v>18.36955746844782</v>
+        <v>18.01400085916617</v>
       </c>
       <c r="D14">
-        <v>9.622280998149378</v>
+        <v>3.187921544084076</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.94637063327309</v>
+        <v>39.4300359231494</v>
       </c>
       <c r="G14">
-        <v>1.989579969307885</v>
+        <v>2.015148924013313</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.41532822589769</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.50676447537695</v>
+        <v>9.547035564989971</v>
       </c>
       <c r="M14">
-        <v>19.61529382068771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.70304108542801</v>
+      </c>
+      <c r="O14">
+        <v>29.98320808387246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.6278935848963</v>
+        <v>34.10016343245591</v>
       </c>
       <c r="C15">
-        <v>18.24627683878304</v>
+        <v>17.9172760039778</v>
       </c>
       <c r="D15">
-        <v>9.571900052067363</v>
+        <v>3.201818819279131</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.46774662558221</v>
+        <v>39.22505669170796</v>
       </c>
       <c r="G15">
-        <v>1.991698264150784</v>
+        <v>2.016489618374286</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.37754975323577</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.43861509755287</v>
+        <v>9.506572898313697</v>
       </c>
       <c r="M15">
-        <v>19.48843697876523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.74025088342073</v>
+      </c>
+      <c r="O15">
+        <v>29.83997532912774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.51511004179514</v>
+        <v>32.90133428847975</v>
       </c>
       <c r="C16">
-        <v>17.53751191019047</v>
+        <v>17.35653742702175</v>
       </c>
       <c r="D16">
-        <v>9.283444981423807</v>
+        <v>3.281468945724879</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.71812250170956</v>
+        <v>38.05044325234782</v>
       </c>
       <c r="G16">
-        <v>2.003750154938722</v>
+        <v>2.024177962874903</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.1627136061891</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.04548077682866</v>
+        <v>9.274717436967988</v>
       </c>
       <c r="M16">
-        <v>18.75710277352833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.95361122820244</v>
+      </c>
+      <c r="O16">
+        <v>29.02229449972286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.82647114516379</v>
+        <v>32.15259830299232</v>
       </c>
       <c r="C17">
-        <v>17.10006767492168</v>
+        <v>17.00667167869922</v>
       </c>
       <c r="D17">
-        <v>9.10653032462243</v>
+        <v>3.330356071679062</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.02364860584817</v>
+        <v>37.32974961252927</v>
       </c>
       <c r="G17">
-        <v>2.011079791759678</v>
+        <v>2.028903170024076</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.03225276411695</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.801744525991312</v>
+        <v>9.132492916212344</v>
       </c>
       <c r="M17">
-        <v>18.3040682212314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.08467051500446</v>
+      </c>
+      <c r="O17">
+        <v>28.5233566465363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.42790344587966</v>
+        <v>31.71695415319138</v>
       </c>
       <c r="C18">
-        <v>16.84727340581042</v>
+        <v>16.8032372762509</v>
       </c>
       <c r="D18">
-        <v>9.004722824432175</v>
+        <v>3.358489966835592</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.04564949874742</v>
+        <v>36.91514443825007</v>
       </c>
       <c r="G18">
-        <v>2.015277292780786</v>
+        <v>2.031625627188183</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.957653814467708</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.660523011034668</v>
+        <v>9.050693100945571</v>
       </c>
       <c r="M18">
-        <v>18.04170431137803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.16013703400196</v>
+      </c>
+      <c r="O18">
+        <v>28.23733347980061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.29250432385635</v>
+        <v>31.56858575282201</v>
       </c>
       <c r="C19">
-        <v>16.76145840646153</v>
+        <v>16.73397605540204</v>
       </c>
       <c r="D19">
-        <v>8.970238116125902</v>
+        <v>3.368018884798102</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.7138866739936</v>
+        <v>36.77474956893197</v>
       </c>
       <c r="G19">
-        <v>2.016695801568521</v>
+        <v>2.032548334213079</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.932466814974159</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.612522837437181</v>
+        <v>9.022997962219183</v>
       </c>
       <c r="M19">
-        <v>17.95254906981591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.18570533293805</v>
+      </c>
+      <c r="O19">
+        <v>28.14065229441057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.90002866259433</v>
+        <v>32.23281677501933</v>
       </c>
       <c r="C20">
-        <v>17.14675265925593</v>
+        <v>17.0441423401925</v>
       </c>
       <c r="D20">
-        <v>9.125367063764344</v>
+        <v>3.325150517943976</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.20436655118145</v>
+        <v>37.40647636337528</v>
       </c>
       <c r="G20">
-        <v>2.010301544216246</v>
+        <v>2.028399714969685</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.04609406324474</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.82779543576145</v>
+        <v>9.147632581338286</v>
       </c>
       <c r="M20">
-        <v>18.35247599407642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.07071076415796</v>
+      </c>
+      <c r="O20">
+        <v>28.57637023730745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.91359239271808</v>
+        <v>34.40565864105142</v>
       </c>
       <c r="C21">
-        <v>18.42864225150482</v>
+        <v>18.06027075978322</v>
       </c>
       <c r="D21">
-        <v>9.646447463229963</v>
+        <v>3.181257412007589</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.17578743401147</v>
+        <v>39.52833217217258</v>
       </c>
       <c r="G21">
-        <v>1.988562435832179</v>
+        <v>2.014506062818314</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43347556213483</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.53940164529347</v>
+        <v>9.566439024142264</v>
       </c>
       <c r="M21">
-        <v>19.67605514496549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.68519939269096</v>
+      </c>
+      <c r="O21">
+        <v>30.05194925562516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.21395697517838</v>
+        <v>35.78364940027627</v>
       </c>
       <c r="C22">
-        <v>19.26084840059016</v>
+        <v>18.70575783103891</v>
       </c>
       <c r="D22">
-        <v>9.988121672106347</v>
+        <v>3.087225331236052</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.40805897244013</v>
+        <v>40.91554283097197</v>
       </c>
       <c r="G22">
-        <v>1.974073730691075</v>
+        <v>2.005434572779485</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.6917731250015</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.99734335546374</v>
+        <v>9.84023933484484</v>
       </c>
       <c r="M22">
-        <v>20.52924019999949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.43351891185099</v>
+      </c>
+      <c r="O22">
+        <v>31.02571403517525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.5210010331488</v>
+        <v>35.05191730691845</v>
       </c>
       <c r="C23">
-        <v>18.81692052502881</v>
+        <v>18.36289887415805</v>
       </c>
       <c r="D23">
-        <v>9.805571911986817</v>
+        <v>3.137416294082353</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.68371960733447</v>
+        <v>40.17503991982557</v>
       </c>
       <c r="G23">
-        <v>1.981838812829641</v>
+        <v>2.010277093634362</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.55337698820481</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.75347254109001</v>
+        <v>9.694092671398321</v>
       </c>
       <c r="M23">
-        <v>20.07473981427272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.56784420258184</v>
+      </c>
+      <c r="O23">
+        <v>30.50507771379512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.86678166070353</v>
+        <v>32.19656618150592</v>
       </c>
       <c r="C24">
-        <v>17.12565048366939</v>
+        <v>17.02720900315236</v>
       </c>
       <c r="D24">
-        <v>9.116851291518824</v>
+        <v>3.327503859967303</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.12267601002343</v>
+        <v>37.37178904647929</v>
       </c>
       <c r="G24">
-        <v>2.010653439821001</v>
+        <v>2.028627308364137</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.03983516339678</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.816021249026408</v>
+        <v>9.140788041688859</v>
       </c>
       <c r="M24">
-        <v>18.33059682601646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.07702159226074</v>
+      </c>
+      <c r="O24">
+        <v>28.55240023772025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.90667288736579</v>
+        <v>28.92478217367013</v>
       </c>
       <c r="C25">
-        <v>15.25418089269395</v>
+        <v>15.50196356430031</v>
       </c>
       <c r="D25">
-        <v>8.371600481956236</v>
+        <v>3.533229937155295</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.91278910229428</v>
+        <v>34.3452952958458</v>
       </c>
       <c r="G25">
-        <v>2.041075547659268</v>
+        <v>2.048612633500572</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.502341965162824</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.931566731771179</v>
+        <v>8.544256024832562</v>
       </c>
       <c r="M25">
-        <v>16.37933308868828</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.62974931157106</v>
+      </c>
+      <c r="O25">
+        <v>26.48273468729068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.33996098696558</v>
+        <v>23.96812533309071</v>
       </c>
       <c r="C2">
-        <v>14.30220043543909</v>
+        <v>20.06662427618741</v>
       </c>
       <c r="D2">
-        <v>3.686137666272703</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>2.81109942717902</v>
       </c>
       <c r="F2">
-        <v>32.11417620839662</v>
+        <v>26.75189188315816</v>
       </c>
       <c r="G2">
-        <v>2.063641360099251</v>
+        <v>2.044251028036536</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>14.84055387207007</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>8.105963816407387</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
-        <v>12.04224567533908</v>
+        <v>10.71607929741879</v>
       </c>
       <c r="O2">
-        <v>24.98939146941329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.4740803111363</v>
+        <v>22.29778997964694</v>
       </c>
       <c r="C3">
-        <v>13.43989780768336</v>
+        <v>18.64926242576607</v>
       </c>
       <c r="D3">
-        <v>3.791100867725657</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>2.904150612035692</v>
       </c>
       <c r="F3">
-        <v>30.60333745588954</v>
+        <v>25.39858170820662</v>
       </c>
       <c r="G3">
-        <v>2.074085414185007</v>
+        <v>2.053792897881684</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>14.60599992748348</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>7.810334012749348</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>12.32641748787931</v>
+        <v>10.97958516196853</v>
       </c>
       <c r="O3">
-        <v>23.99776939974894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.27093267344299</v>
+        <v>21.21670932206867</v>
       </c>
       <c r="C4">
-        <v>12.88593193555946</v>
+        <v>17.73375396643831</v>
       </c>
       <c r="D4">
-        <v>3.856352212192696</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>2.961839968016612</v>
       </c>
       <c r="F4">
-        <v>29.6781017490322</v>
+        <v>24.57153395417663</v>
       </c>
       <c r="G4">
-        <v>2.08064423089019</v>
+        <v>2.059788246676233</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>14.48582021825479</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>7.629908895124149</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>12.5035393176511</v>
+        <v>11.14386050174402</v>
       </c>
       <c r="O4">
-        <v>23.39988967020352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.79955955895004</v>
+        <v>20.76203887888363</v>
       </c>
       <c r="C5">
-        <v>12.6540148976769</v>
+        <v>17.34913417073056</v>
       </c>
       <c r="D5">
-        <v>3.883165330320341</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>2.985510847789143</v>
       </c>
       <c r="F5">
-        <v>29.30203422989107</v>
+        <v>24.23584529797963</v>
       </c>
       <c r="G5">
-        <v>2.083356232060725</v>
+        <v>2.062267848907454</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>14.44256775731809</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>7.556731327262141</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>12.57643159049467</v>
+        <v>11.21148063373921</v>
       </c>
       <c r="O5">
-        <v>23.15918567975751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.72106136400534</v>
+        <v>20.68568353192869</v>
       </c>
       <c r="C6">
-        <v>12.61513273391793</v>
+        <v>17.28456650729724</v>
       </c>
       <c r="D6">
-        <v>3.88763166738567</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>2.989451794571623</v>
       </c>
       <c r="F6">
-        <v>29.23965930214398</v>
+        <v>24.18019726632373</v>
       </c>
       <c r="G6">
-        <v>2.083808996299934</v>
+        <v>2.062681844896343</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>14.43572298580566</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>7.544603497991813</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>12.5885798180362</v>
+        <v>11.22275124299231</v>
       </c>
       <c r="O6">
-        <v>23.11939996315402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.26418279359503</v>
+        <v>21.2106348714468</v>
       </c>
       <c r="C7">
-        <v>12.88282920301288</v>
+        <v>17.72861379878532</v>
       </c>
       <c r="D7">
-        <v>3.856712894904372</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>2.96215851716941</v>
       </c>
       <c r="F7">
-        <v>29.67302549634893</v>
+        <v>24.56700078596773</v>
       </c>
       <c r="G7">
-        <v>2.080680643894991</v>
+        <v>2.05982153721304</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>14.48521410641248</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>7.628920489207486</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>12.50451941424426</v>
+        <v>11.14476964390764</v>
       </c>
       <c r="O7">
-        <v>23.39663130972254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.70844095177658</v>
+        <v>23.40360619098714</v>
       </c>
       <c r="C8">
-        <v>14.00995256805059</v>
+        <v>19.58720510868523</v>
       </c>
       <c r="D8">
-        <v>3.722174809040181</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>2.843081950262973</v>
       </c>
       <c r="F8">
-        <v>31.59293049208089</v>
+        <v>26.28465803581995</v>
       </c>
       <c r="G8">
-        <v>2.0672137003796</v>
+        <v>2.047514026916619</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>14.75457411790023</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>8.003844260621806</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>12.1397112932799</v>
+        <v>10.80645380574057</v>
       </c>
       <c r="O8">
-        <v>24.64529752689423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.05354003460714</v>
+        <v>27.27181456122389</v>
       </c>
       <c r="C9">
-        <v>16.02743572378141</v>
+        <v>22.88093059245221</v>
       </c>
       <c r="D9">
-        <v>3.463766783947195</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>2.61291740392253</v>
       </c>
       <c r="F9">
-        <v>35.36536979425352</v>
+        <v>29.67195861659646</v>
       </c>
       <c r="G9">
-        <v>2.041840984181094</v>
+        <v>2.024359075685523</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>15.48313955501898</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>8.745130927726388</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
-        <v>11.44286649259528</v>
+        <v>10.16013511199836</v>
       </c>
       <c r="O9">
-        <v>27.17522193926236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.98610148117235</v>
+        <v>29.86235776503344</v>
       </c>
       <c r="C10">
-        <v>17.39616436174468</v>
+        <v>25.09893342032238</v>
       </c>
       <c r="D10">
-        <v>3.275892187021651</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>2.444304560077305</v>
       </c>
       <c r="F10">
-        <v>38.13267102589163</v>
+        <v>32.16260756693284</v>
       </c>
       <c r="G10">
-        <v>2.023639309275945</v>
+        <v>2.007784269626375</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>16.15469659927429</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>9.290946724368162</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>10.93866631791363</v>
+        <v>9.691804448217942</v>
       </c>
       <c r="O10">
-        <v>29.07935798423069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.26735384977723</v>
+        <v>30.98919461660002</v>
       </c>
       <c r="C11">
-        <v>17.99552870926356</v>
+        <v>26.06708359281438</v>
       </c>
       <c r="D11">
-        <v>3.190579127168756</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2.367352670712658</v>
       </c>
       <c r="F11">
-        <v>39.39083698781026</v>
+        <v>33.36931559192202</v>
       </c>
       <c r="G11">
-        <v>2.015405296293297</v>
+        <v>2.000298268002027</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>16.49258038236127</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>9.539297756991738</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
-        <v>10.71015641148715</v>
+        <v>9.479197017574382</v>
       </c>
       <c r="O11">
-        <v>29.95580513001614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.74528314400762</v>
+        <v>31.40874389245348</v>
       </c>
       <c r="C12">
-        <v>18.21928738733358</v>
+        <v>26.42809938951908</v>
       </c>
       <c r="D12">
-        <v>3.158275681392812</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>2.338148223779965</v>
       </c>
       <c r="F12">
-        <v>39.86732856664943</v>
+        <v>33.84527487350845</v>
       </c>
       <c r="G12">
-        <v>2.012289215975365</v>
+        <v>1.997467427266636</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>16.62540849564643</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>9.633354931125547</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
-        <v>10.62367742641956</v>
+        <v>9.398662033882422</v>
       </c>
       <c r="O12">
-        <v>30.28928762302586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.6426692532028</v>
+        <v>31.31870039729339</v>
       </c>
       <c r="C13">
-        <v>18.17123709749223</v>
+        <v>26.35059270564206</v>
       </c>
       <c r="D13">
-        <v>3.16523294710024</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>2.344441236333989</v>
       </c>
       <c r="F13">
-        <v>39.76470163205916</v>
+        <v>33.74286562793517</v>
       </c>
       <c r="G13">
-        <v>2.012960313069927</v>
+        <v>1.998076989763853</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>16.59658100277926</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>9.613097231436681</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
-        <v>10.64230101651966</v>
+        <v>9.416009302388712</v>
       </c>
       <c r="O13">
-        <v>30.21739268950342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.30681665310549</v>
+        <v>31.02385307392695</v>
       </c>
       <c r="C14">
-        <v>18.01400085916617</v>
+        <v>26.09689519673595</v>
       </c>
       <c r="D14">
-        <v>3.187921544084076</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>2.364951455772164</v>
       </c>
       <c r="F14">
-        <v>39.4300359231494</v>
+        <v>33.40851725528186</v>
       </c>
       <c r="G14">
-        <v>2.015148924013313</v>
+        <v>2.000065317472457</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>16.5034091621581</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>9.547035564989971</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
-        <v>10.70304108542801</v>
+        <v>9.472572397121652</v>
       </c>
       <c r="O14">
-        <v>29.98320808387246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10016343245591</v>
+        <v>30.84232645612459</v>
       </c>
       <c r="C15">
-        <v>17.9172760039778</v>
+        <v>25.94077714371151</v>
       </c>
       <c r="D15">
-        <v>3.201818819279131</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>2.377505329076198</v>
       </c>
       <c r="F15">
-        <v>39.22505669170796</v>
+        <v>33.20342966399427</v>
       </c>
       <c r="G15">
-        <v>2.016489618374286</v>
+        <v>2.001283618290863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>16.44698075645389</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>9.506572898313697</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
-        <v>10.74025088342073</v>
+        <v>9.507212880354503</v>
       </c>
       <c r="O15">
-        <v>29.83997532912774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.90133428847975</v>
+        <v>29.78769958653086</v>
       </c>
       <c r="C16">
-        <v>17.35653742702175</v>
+        <v>25.03486332871426</v>
       </c>
       <c r="D16">
-        <v>3.281468945724879</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>2.449326075677815</v>
       </c>
       <c r="F16">
-        <v>38.05044325234782</v>
+        <v>32.08855402737203</v>
       </c>
       <c r="G16">
-        <v>2.024177962874903</v>
+        <v>2.008274267622925</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>16.13328567212074</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>9.274717436967988</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>10.95361122820244</v>
+        <v>9.705700323277584</v>
       </c>
       <c r="O16">
-        <v>29.02229449972286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.15259830299232</v>
+        <v>29.12767947376759</v>
       </c>
       <c r="C17">
-        <v>17.00667167869922</v>
+        <v>24.4688400466238</v>
       </c>
       <c r="D17">
-        <v>3.330356071679062</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>2.493301486133828</v>
       </c>
       <c r="F17">
-        <v>37.32974961252927</v>
+        <v>31.43961001815028</v>
       </c>
       <c r="G17">
-        <v>2.028903170024076</v>
+        <v>2.012574052752888</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>15.94929595786935</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>9.132492916212344</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>11.08467051500446</v>
+        <v>9.827518174819325</v>
       </c>
       <c r="O17">
-        <v>28.5233566465363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.71695415319138</v>
+        <v>28.74317804238772</v>
       </c>
       <c r="C18">
-        <v>16.8032372762509</v>
+        <v>24.13941756563852</v>
       </c>
       <c r="D18">
-        <v>3.358489966835592</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>2.518573256001337</v>
       </c>
       <c r="F18">
-        <v>36.91514443825007</v>
+        <v>31.0663747856292</v>
       </c>
       <c r="G18">
-        <v>2.031625627188183</v>
+        <v>2.015052508108419</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>15.84650539995069</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>9.050693100945571</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>11.16013703400196</v>
+        <v>9.897631630677544</v>
       </c>
       <c r="O18">
-        <v>28.23733347980061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.56858575282201</v>
+        <v>28.61214753288441</v>
       </c>
       <c r="C19">
-        <v>16.73397605540204</v>
+        <v>24.02720990423851</v>
       </c>
       <c r="D19">
-        <v>3.368018884798102</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>2.52712699172855</v>
       </c>
       <c r="F19">
-        <v>36.77474956893197</v>
+        <v>30.94000552135501</v>
       </c>
       <c r="G19">
-        <v>2.032548334213079</v>
+        <v>2.015892695270877</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>15.81221694246247</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>9.022997962219183</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
-        <v>11.18570533293805</v>
+        <v>9.92138147165427</v>
       </c>
       <c r="O19">
-        <v>28.14065229441057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.23281677501933</v>
+        <v>29.19844249741375</v>
       </c>
       <c r="C20">
-        <v>17.0441423401925</v>
+        <v>24.52949191187433</v>
       </c>
       <c r="D20">
-        <v>3.325150517943976</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>2.488622686035462</v>
       </c>
       <c r="F20">
-        <v>37.40647636337528</v>
+        <v>31.50868865211348</v>
       </c>
       <c r="G20">
-        <v>2.028399714969685</v>
+        <v>2.012115807548865</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>15.96856623006947</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>9.147632581338286</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
-        <v>11.07071076415796</v>
+        <v>9.814546198676597</v>
       </c>
       <c r="O20">
-        <v>28.57637023730745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.40565864105142</v>
+        <v>31.11064895874037</v>
       </c>
       <c r="C21">
-        <v>18.06027075978322</v>
+        <v>26.1715620381559</v>
       </c>
       <c r="D21">
-        <v>3.181257412007589</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>2.358929080048481</v>
       </c>
       <c r="F21">
-        <v>39.52833217217258</v>
+        <v>33.50678327859892</v>
       </c>
       <c r="G21">
-        <v>2.014506062818314</v>
+        <v>1.999481223070253</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>16.53064178535507</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>9.566439024142264</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>10.68519939269096</v>
+        <v>9.455959875012409</v>
       </c>
       <c r="O21">
-        <v>30.05194925562516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.78364940027627</v>
+        <v>32.31879785020869</v>
       </c>
       <c r="C22">
-        <v>18.70575783103891</v>
+        <v>27.21224609900065</v>
       </c>
       <c r="D22">
-        <v>3.087225331236052</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>2.273778849625451</v>
       </c>
       <c r="F22">
-        <v>40.91554283097197</v>
+        <v>34.88817224041218</v>
       </c>
       <c r="G22">
-        <v>2.005434572779485</v>
+        <v>1.991244667443579</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>16.92653755747664</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>9.84023933484484</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
-        <v>10.43351891185099</v>
+        <v>9.221408822572851</v>
       </c>
       <c r="O22">
-        <v>31.02571403517525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.05191730691845</v>
+        <v>31.67769749589591</v>
       </c>
       <c r="C23">
-        <v>18.36289887415805</v>
+        <v>26.65969056564589</v>
       </c>
       <c r="D23">
-        <v>3.137416294082353</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>2.31926979729479</v>
       </c>
       <c r="F23">
-        <v>40.17503991982557</v>
+        <v>34.15200251753159</v>
       </c>
       <c r="G23">
-        <v>2.010277093634362</v>
+        <v>1.995640148382266</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>16.71255329200553</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>9.694092671398321</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>10.56784420258184</v>
+        <v>9.346642403102514</v>
       </c>
       <c r="O23">
-        <v>30.50507771379512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.19656618150592</v>
+        <v>29.1664662744514</v>
       </c>
       <c r="C24">
-        <v>17.02720900315236</v>
+        <v>24.50208370810444</v>
       </c>
       <c r="D24">
-        <v>3.327503859967303</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>2.49073800139954</v>
       </c>
       <c r="F24">
-        <v>37.37178904647929</v>
+        <v>31.477458671782</v>
       </c>
       <c r="G24">
-        <v>2.028627308364137</v>
+        <v>2.012322959828371</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>15.95984485097819</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>9.140788041688859</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>11.07702159226074</v>
+        <v>9.820410577250257</v>
       </c>
       <c r="O24">
-        <v>28.55240023772025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.92478217367013</v>
+        <v>26.27044154677327</v>
       </c>
       <c r="C25">
-        <v>15.50196356430031</v>
+        <v>22.02627809864973</v>
       </c>
       <c r="D25">
-        <v>3.533229937155295</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>2.674980795758061</v>
       </c>
       <c r="F25">
-        <v>34.3452952958458</v>
+        <v>28.75489095509726</v>
       </c>
       <c r="G25">
-        <v>2.048612633500572</v>
+        <v>2.030533748342578</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>15.2630769959292</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>8.544256024832562</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
-        <v>11.62974931157106</v>
+        <v>10.3335325970524</v>
       </c>
       <c r="O25">
-        <v>26.48273468729068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.96812533309071</v>
+        <v>15.29126840243755</v>
       </c>
       <c r="C2">
-        <v>20.06662427618741</v>
+        <v>11.40952840570048</v>
       </c>
       <c r="D2">
-        <v>2.81109942717902</v>
+        <v>4.515686686952149</v>
       </c>
       <c r="F2">
-        <v>26.75189188315816</v>
+        <v>26.68701402281247</v>
       </c>
       <c r="G2">
-        <v>2.044251028036536</v>
+        <v>3.621311576494712</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.84055387207007</v>
+        <v>20.23164453289785</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.71607929741879</v>
+        <v>16.45933191183161</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.29778997964694</v>
+        <v>14.64272053545449</v>
       </c>
       <c r="C3">
-        <v>18.64926242576607</v>
+        <v>10.75739722647943</v>
       </c>
       <c r="D3">
-        <v>2.904150612035692</v>
+        <v>4.539222349931217</v>
       </c>
       <c r="F3">
-        <v>25.39858170820662</v>
+        <v>26.4889307128727</v>
       </c>
       <c r="G3">
-        <v>2.053792897881684</v>
+        <v>3.624713716211601</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.60599992748348</v>
+        <v>20.29201184188097</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.97958516196853</v>
+        <v>16.53167223986506</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.21670932206867</v>
+        <v>14.23291915474673</v>
       </c>
       <c r="C4">
-        <v>17.73375396643831</v>
+        <v>10.33837539094934</v>
       </c>
       <c r="D4">
-        <v>2.961839968016612</v>
+        <v>4.554286793787387</v>
       </c>
       <c r="F4">
-        <v>24.57153395417663</v>
+        <v>26.37784715841357</v>
       </c>
       <c r="G4">
-        <v>2.059788246676233</v>
+        <v>3.62691043014828</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.48582021825479</v>
+        <v>20.33597824671418</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.14386050174402</v>
+        <v>16.57810081183548</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.76203887888363</v>
+        <v>14.06327191036689</v>
       </c>
       <c r="C5">
-        <v>17.34913417073056</v>
+        <v>10.16310787339057</v>
       </c>
       <c r="D5">
-        <v>2.985510847789143</v>
+        <v>4.560580578088538</v>
       </c>
       <c r="F5">
-        <v>24.23584529797963</v>
+        <v>26.33526996963107</v>
       </c>
       <c r="G5">
-        <v>2.062267848907454</v>
+        <v>3.627832813183698</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.44256775731809</v>
+        <v>20.35561745376909</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.21148063373921</v>
+        <v>16.59752845191983</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68568353192869</v>
+        <v>14.03495043987692</v>
       </c>
       <c r="C6">
-        <v>17.28456650729724</v>
+        <v>10.13373783896007</v>
       </c>
       <c r="D6">
-        <v>2.989451794571623</v>
+        <v>4.561635030752857</v>
       </c>
       <c r="F6">
-        <v>24.18019726632373</v>
+        <v>26.32836358468564</v>
       </c>
       <c r="G6">
-        <v>2.062681844896343</v>
+        <v>3.627987620206557</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.43572298580566</v>
+        <v>20.35898218497959</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.22275124299231</v>
+        <v>16.60078511040488</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.2106348714468</v>
+        <v>14.23064158841096</v>
       </c>
       <c r="C7">
-        <v>17.72861379878532</v>
+        <v>10.33602969781891</v>
       </c>
       <c r="D7">
-        <v>2.96215851716941</v>
+        <v>4.554371045950036</v>
       </c>
       <c r="F7">
-        <v>24.56700078596773</v>
+        <v>26.37726200701284</v>
       </c>
       <c r="G7">
-        <v>2.05982153721304</v>
+        <v>3.626922759447032</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.48521410641248</v>
+        <v>20.33623615071441</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.14476964390764</v>
+        <v>16.57836076202941</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.40360619098714</v>
+        <v>15.07020358243731</v>
       </c>
       <c r="C8">
-        <v>19.58720510868523</v>
+        <v>11.18862635578854</v>
       </c>
       <c r="D8">
-        <v>2.843081950262973</v>
+        <v>4.523674850138188</v>
       </c>
       <c r="F8">
-        <v>26.28465803581995</v>
+        <v>26.61655301320004</v>
       </c>
       <c r="G8">
-        <v>2.047514026916619</v>
+        <v>3.622462323833028</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.75457411790023</v>
+        <v>20.25101949416507</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.80645380574057</v>
+        <v>16.48385852933076</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27181456122389</v>
+        <v>16.61457399712624</v>
       </c>
       <c r="C9">
-        <v>22.88093059245221</v>
+        <v>12.70711200977432</v>
       </c>
       <c r="D9">
-        <v>2.61291740392253</v>
+        <v>4.468317507394975</v>
       </c>
       <c r="F9">
-        <v>29.67195861659646</v>
+        <v>27.16738798069339</v>
       </c>
       <c r="G9">
-        <v>2.024359075685523</v>
+        <v>3.614566070939022</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.48313955501898</v>
+        <v>20.13920452868437</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.16013511199836</v>
+        <v>16.31441324386573</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.86235776503344</v>
+        <v>17.67561893838188</v>
       </c>
       <c r="C10">
-        <v>25.09893342032238</v>
+        <v>13.72321612493207</v>
       </c>
       <c r="D10">
-        <v>2.444304560077305</v>
+        <v>4.4305538007949</v>
       </c>
       <c r="F10">
-        <v>32.16260756693284</v>
+        <v>27.61868825145148</v>
       </c>
       <c r="G10">
-        <v>2.007784269626375</v>
+        <v>3.609276843331576</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.15469659927429</v>
+        <v>20.09146315121391</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.691804448217942</v>
+        <v>16.19947756897527</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98919461660002</v>
+        <v>18.14044135778222</v>
       </c>
       <c r="C11">
-        <v>26.06708359281438</v>
+        <v>14.16299946188439</v>
       </c>
       <c r="D11">
-        <v>2.367352670712658</v>
+        <v>4.413996483674102</v>
       </c>
       <c r="F11">
-        <v>33.36931559192202</v>
+        <v>27.83334615284807</v>
       </c>
       <c r="G11">
-        <v>2.000298268002027</v>
+        <v>3.606980471960467</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.49258038236127</v>
+        <v>20.07735147551886</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.479197017574382</v>
+        <v>16.14923950504755</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.40874389245348</v>
+        <v>18.31376260010654</v>
       </c>
       <c r="C12">
-        <v>26.42809938951908</v>
+        <v>14.32625438316412</v>
       </c>
       <c r="D12">
-        <v>2.338148223779965</v>
+        <v>4.40781537332994</v>
       </c>
       <c r="F12">
-        <v>33.84527487350845</v>
+        <v>27.91590697784245</v>
       </c>
       <c r="G12">
-        <v>1.997467427266636</v>
+        <v>3.606126568912492</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.62540849564643</v>
+        <v>20.07311139209957</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.398662033882422</v>
+        <v>16.13050804776085</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.31870039729339</v>
+        <v>18.27655657606698</v>
       </c>
       <c r="C13">
-        <v>26.35059270564206</v>
+        <v>14.29124118329708</v>
       </c>
       <c r="D13">
-        <v>2.344441236333989</v>
+        <v>4.409142646666135</v>
       </c>
       <c r="F13">
-        <v>33.74286562793517</v>
+        <v>27.89807050972057</v>
       </c>
       <c r="G13">
-        <v>1.998076989763853</v>
+        <v>3.606309776222473</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.59658100277926</v>
+        <v>20.07397533293528</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.416009302388712</v>
+        <v>16.13452921555416</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.02385307392695</v>
+        <v>18.15475532519791</v>
       </c>
       <c r="C14">
-        <v>26.09689519673595</v>
+        <v>14.17649657163892</v>
       </c>
       <c r="D14">
-        <v>2.364951455772164</v>
+        <v>4.413486183993016</v>
       </c>
       <c r="F14">
-        <v>33.40851725528186</v>
+        <v>27.84011335746405</v>
       </c>
       <c r="G14">
-        <v>2.000065317472457</v>
+        <v>3.606909907077747</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.5034091621581</v>
+        <v>20.07698046745742</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.472572397121652</v>
+        <v>16.14769260225962</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.84232645612459</v>
+        <v>18.07979380545355</v>
       </c>
       <c r="C15">
-        <v>25.94077714371151</v>
+        <v>14.10578345844781</v>
       </c>
       <c r="D15">
-        <v>2.377505329076198</v>
+        <v>4.416158271018085</v>
       </c>
       <c r="F15">
-        <v>33.20342966399427</v>
+        <v>27.8047767407881</v>
       </c>
       <c r="G15">
-        <v>2.001283618290863</v>
+        <v>3.607279544115959</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.44698075645389</v>
+        <v>20.07896521475335</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.507212880354503</v>
+        <v>16.1557936122111</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.78769958653086</v>
+        <v>17.64487091937854</v>
       </c>
       <c r="C16">
-        <v>25.03486332871426</v>
+        <v>13.69401868219077</v>
       </c>
       <c r="D16">
-        <v>2.449326075677815</v>
+        <v>4.431648317103405</v>
       </c>
       <c r="F16">
-        <v>32.08855402737203</v>
+        <v>27.60484216196934</v>
       </c>
       <c r="G16">
-        <v>2.008274267622925</v>
+        <v>3.60942911638578</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.13328567212074</v>
+        <v>20.09253930655924</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.705700323277584</v>
+        <v>16.20280178366986</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.12767947376759</v>
+        <v>17.37338870251203</v>
       </c>
       <c r="C17">
-        <v>24.4688400466238</v>
+        <v>13.43562279655227</v>
       </c>
       <c r="D17">
-        <v>2.493301486133828</v>
+        <v>4.441309734427143</v>
       </c>
       <c r="F17">
-        <v>31.43961001815028</v>
+        <v>27.48453620031837</v>
       </c>
       <c r="G17">
-        <v>2.012574052752888</v>
+        <v>3.610775844528149</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.94929595786935</v>
+        <v>20.10282202350594</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.827518174819325</v>
+        <v>16.23216277243153</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.74317804238772</v>
+        <v>17.21556538499416</v>
       </c>
       <c r="C18">
-        <v>24.13941756563852</v>
+        <v>13.28488976336113</v>
       </c>
       <c r="D18">
-        <v>2.518573256001337</v>
+        <v>4.446925267713351</v>
       </c>
       <c r="F18">
-        <v>31.0663747856292</v>
+        <v>27.41622481714136</v>
       </c>
       <c r="G18">
-        <v>2.015052508108419</v>
+        <v>3.611560780428304</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.84650539995069</v>
+        <v>20.10945175021748</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.897631630677544</v>
+        <v>16.24924318799629</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.61214753288441</v>
+        <v>17.16184590475504</v>
       </c>
       <c r="C19">
-        <v>24.02720990423851</v>
+        <v>13.23349349876926</v>
       </c>
       <c r="D19">
-        <v>2.52712699172855</v>
+        <v>4.448836663626182</v>
       </c>
       <c r="F19">
-        <v>30.94000552135501</v>
+        <v>27.39324994748705</v>
       </c>
       <c r="G19">
-        <v>2.015892695270877</v>
+        <v>3.611828323935461</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.81221694246247</v>
+        <v>20.11181901207581</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.92138147165427</v>
+        <v>16.25505948087556</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.19844249741375</v>
+        <v>17.4024626958358</v>
       </c>
       <c r="C20">
-        <v>24.52949191187433</v>
+        <v>13.463348341362</v>
       </c>
       <c r="D20">
-        <v>2.488622686035462</v>
+        <v>4.440275205625118</v>
       </c>
       <c r="F20">
-        <v>31.50868865211348</v>
+        <v>27.49725184382937</v>
       </c>
       <c r="G20">
-        <v>2.012115807548865</v>
+        <v>3.610631414235891</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.96856623006947</v>
+        <v>20.10165329716157</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.814546198676597</v>
+        <v>16.22901730858116</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.11064895874037</v>
+        <v>18.1906054365268</v>
       </c>
       <c r="C21">
-        <v>26.1715620381559</v>
+        <v>14.21028927025823</v>
       </c>
       <c r="D21">
-        <v>2.358929080048481</v>
+        <v>4.412207976877713</v>
       </c>
       <c r="F21">
-        <v>33.50678327859892</v>
+        <v>27.85710277107706</v>
       </c>
       <c r="G21">
-        <v>1.999481223070253</v>
+        <v>3.606733209224617</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.53064178535507</v>
+        <v>20.07606775728936</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.455959875012409</v>
+        <v>16.14381826879696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.31879785020869</v>
+        <v>18.68993563732032</v>
       </c>
       <c r="C22">
-        <v>27.21224609900065</v>
+        <v>14.67931469574046</v>
       </c>
       <c r="D22">
-        <v>2.273778849625451</v>
+        <v>4.394381662515722</v>
       </c>
       <c r="F22">
-        <v>34.88817224041218</v>
+        <v>28.09968000028968</v>
       </c>
       <c r="G22">
-        <v>1.991244667443579</v>
+        <v>3.604276875201072</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.92653755747664</v>
+        <v>20.06578336355483</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.221408822572851</v>
+        <v>16.08984052581338</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.67769749589591</v>
+        <v>18.42491430763704</v>
       </c>
       <c r="C23">
-        <v>26.65969056564589</v>
+        <v>14.43075327188616</v>
       </c>
       <c r="D23">
-        <v>2.31926979729479</v>
+        <v>4.403848769755451</v>
       </c>
       <c r="F23">
-        <v>34.15200251753159</v>
+        <v>27.96955975766434</v>
       </c>
       <c r="G23">
-        <v>1.995640148382266</v>
+        <v>3.605579538083882</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.71255329200553</v>
+        <v>20.07068026117194</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.346642403102514</v>
+        <v>16.11849403991833</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.1664662744514</v>
+        <v>17.38932376735417</v>
       </c>
       <c r="C24">
-        <v>24.50208370810444</v>
+        <v>13.45082040180503</v>
       </c>
       <c r="D24">
-        <v>2.49073800139954</v>
+        <v>4.440742725846909</v>
       </c>
       <c r="F24">
-        <v>31.477458671782</v>
+        <v>27.49150043550759</v>
       </c>
       <c r="G24">
-        <v>2.012322959828371</v>
+        <v>3.610696677884021</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.95984485097819</v>
+        <v>20.10217944239181</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.820410577250257</v>
+        <v>16.23043874842781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.27044154677327</v>
+        <v>16.20898526075382</v>
       </c>
       <c r="C25">
-        <v>22.02627809864973</v>
+        <v>12.31345148663811</v>
       </c>
       <c r="D25">
-        <v>2.674980795758061</v>
+        <v>4.48277957033947</v>
       </c>
       <c r="F25">
-        <v>28.75489095509726</v>
+        <v>27.00994159702672</v>
       </c>
       <c r="G25">
-        <v>2.030533748342578</v>
+        <v>3.616611814980879</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.2630769959292</v>
+        <v>20.16345883978886</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.3335325970524</v>
+        <v>16.35856590356731</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.29126840243755</v>
+        <v>23.96812533309078</v>
       </c>
       <c r="C2">
-        <v>11.40952840570048</v>
+        <v>20.06662427618742</v>
       </c>
       <c r="D2">
-        <v>4.515686686952149</v>
+        <v>2.811099427179151</v>
       </c>
       <c r="F2">
-        <v>26.68701402281247</v>
+        <v>26.7518918831581</v>
       </c>
       <c r="G2">
-        <v>3.621311576494712</v>
+        <v>2.044251028036537</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.23164453289785</v>
+        <v>14.84055387206996</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.45933191183161</v>
+        <v>10.71607929741868</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.64272053545449</v>
+        <v>22.29778997964701</v>
       </c>
       <c r="C3">
-        <v>10.75739722647943</v>
+        <v>18.64926242576605</v>
       </c>
       <c r="D3">
-        <v>4.539222349931217</v>
+        <v>2.904150612035557</v>
       </c>
       <c r="F3">
-        <v>26.4889307128727</v>
+        <v>25.39858170820675</v>
       </c>
       <c r="G3">
-        <v>3.624713716211601</v>
+        <v>2.053792897881414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.29201184188097</v>
+        <v>14.60599992748353</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.53167223986506</v>
+        <v>10.97958516196853</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.23291915474673</v>
+        <v>21.21670932206862</v>
       </c>
       <c r="C4">
-        <v>10.33837539094934</v>
+        <v>17.73375396643826</v>
       </c>
       <c r="D4">
-        <v>4.554286793787387</v>
+        <v>2.961839968016614</v>
       </c>
       <c r="F4">
-        <v>26.37784715841357</v>
+        <v>24.5715339541766</v>
       </c>
       <c r="G4">
-        <v>3.62691043014828</v>
+        <v>2.059788246676503</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.33597824671418</v>
+        <v>14.48582021825479</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.57810081183548</v>
+        <v>11.14386050174406</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06327191036689</v>
+        <v>20.76203887888346</v>
       </c>
       <c r="C5">
-        <v>10.16310787339057</v>
+        <v>17.34913417073049</v>
       </c>
       <c r="D5">
-        <v>4.560580578088538</v>
+        <v>2.985510847789143</v>
       </c>
       <c r="F5">
-        <v>26.33526996963107</v>
+        <v>24.23584529797965</v>
       </c>
       <c r="G5">
-        <v>3.627832813183698</v>
+        <v>2.062267848907452</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.35561745376909</v>
+        <v>14.44256775731824</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.59752845191983</v>
+        <v>11.21148063373925</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.03495043987692</v>
+        <v>20.68568353192877</v>
       </c>
       <c r="C6">
-        <v>10.13373783896007</v>
+        <v>17.28456650729735</v>
       </c>
       <c r="D6">
-        <v>4.561635030752857</v>
+        <v>2.989451794571625</v>
       </c>
       <c r="F6">
-        <v>26.32836358468564</v>
+        <v>24.18019726632364</v>
       </c>
       <c r="G6">
-        <v>3.627987620206557</v>
+        <v>2.062681844896476</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.35898218497959</v>
+        <v>14.43572298580556</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.60078511040488</v>
+        <v>11.22275124299227</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.23064158841096</v>
+        <v>21.21063487144681</v>
       </c>
       <c r="C7">
-        <v>10.33602969781891</v>
+        <v>17.72861379878527</v>
       </c>
       <c r="D7">
-        <v>4.554371045950036</v>
+        <v>2.962158517169676</v>
       </c>
       <c r="F7">
-        <v>26.37726200701284</v>
+        <v>24.56700078596766</v>
       </c>
       <c r="G7">
-        <v>3.626922759447032</v>
+        <v>2.059821537212775</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.33623615071441</v>
+        <v>14.48521410641248</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.57836076202941</v>
+        <v>11.14476964390771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.07020358243731</v>
+        <v>23.40360619098729</v>
       </c>
       <c r="C8">
-        <v>11.18862635578854</v>
+        <v>19.58720510868518</v>
       </c>
       <c r="D8">
-        <v>4.523674850138188</v>
+        <v>2.843081950263172</v>
       </c>
       <c r="F8">
-        <v>26.61655301320004</v>
+        <v>26.28465803581992</v>
       </c>
       <c r="G8">
-        <v>3.622462323833028</v>
+        <v>2.047514026916489</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.25101949416507</v>
+        <v>14.75457411790013</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.48385852933076</v>
+        <v>10.8064538057405</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.61457399712624</v>
+        <v>27.27181456122404</v>
       </c>
       <c r="C9">
-        <v>12.70711200977432</v>
+        <v>22.88093059245237</v>
       </c>
       <c r="D9">
-        <v>4.468317507394975</v>
+        <v>2.612917403922259</v>
       </c>
       <c r="F9">
-        <v>27.16738798069339</v>
+        <v>29.67195861659648</v>
       </c>
       <c r="G9">
-        <v>3.614566070939022</v>
+        <v>2.024359075685523</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.13920452868437</v>
+        <v>15.48313955501892</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.31441324386573</v>
+        <v>10.16013511199826</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67561893838188</v>
+        <v>29.86235776503354</v>
       </c>
       <c r="C10">
-        <v>13.72321612493207</v>
+        <v>25.09893342032243</v>
       </c>
       <c r="D10">
-        <v>4.4305538007949</v>
+        <v>2.444304560077164</v>
       </c>
       <c r="F10">
-        <v>27.61868825145148</v>
+        <v>32.16260756693293</v>
       </c>
       <c r="G10">
-        <v>3.609276843331576</v>
+        <v>2.007784269626507</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.09146315121391</v>
+        <v>16.15469659927433</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.19947756897527</v>
+        <v>9.691804448217901</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.14044135778222</v>
+        <v>30.98919461660002</v>
       </c>
       <c r="C11">
-        <v>14.16299946188439</v>
+        <v>26.0670835928144</v>
       </c>
       <c r="D11">
-        <v>4.413996483674102</v>
+        <v>2.367352670712791</v>
       </c>
       <c r="F11">
-        <v>27.83334615284807</v>
+        <v>33.369315591922</v>
       </c>
       <c r="G11">
-        <v>3.606980471960467</v>
+        <v>2.000298268002156</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.07735147551886</v>
+        <v>16.49258038236126</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.14923950504755</v>
+        <v>9.479197017574382</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.31376260010654</v>
+        <v>31.40874389245358</v>
       </c>
       <c r="C12">
-        <v>14.32625438316412</v>
+        <v>26.42809938951915</v>
       </c>
       <c r="D12">
-        <v>4.40781537332994</v>
+        <v>2.338148223779957</v>
       </c>
       <c r="F12">
-        <v>27.91590697784245</v>
+        <v>33.84527487350864</v>
       </c>
       <c r="G12">
-        <v>3.606126568912492</v>
+        <v>1.99746742726637</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.07311139209957</v>
+        <v>16.62540849564648</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.13050804776085</v>
+        <v>9.398662033882379</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27655657606698</v>
+        <v>31.31870039729342</v>
       </c>
       <c r="C13">
-        <v>14.29124118329708</v>
+        <v>26.35059270564212</v>
       </c>
       <c r="D13">
-        <v>4.409142646666135</v>
+        <v>2.344441236333915</v>
       </c>
       <c r="F13">
-        <v>27.89807050972057</v>
+        <v>33.74286562793518</v>
       </c>
       <c r="G13">
-        <v>3.606309776222473</v>
+        <v>1.998076989763718</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.07397533293528</v>
+        <v>16.59658100277926</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.13452921555416</v>
+        <v>9.41600930238868</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.15475532519791</v>
+        <v>31.02385307392714</v>
       </c>
       <c r="C14">
-        <v>14.17649657163892</v>
+        <v>26.09689519673605</v>
       </c>
       <c r="D14">
-        <v>4.413486183993016</v>
+        <v>2.364951455772098</v>
       </c>
       <c r="F14">
-        <v>27.84011335746405</v>
+        <v>33.40851725528204</v>
       </c>
       <c r="G14">
-        <v>3.606909907077747</v>
+        <v>2.00006531747259</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.07698046745742</v>
+        <v>16.50340916215804</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.14769260225962</v>
+        <v>9.472572397121521</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.07979380545355</v>
+        <v>30.84232645612472</v>
       </c>
       <c r="C15">
-        <v>14.10578345844781</v>
+        <v>25.94077714371153</v>
       </c>
       <c r="D15">
-        <v>4.416158271018085</v>
+        <v>2.377505329076329</v>
       </c>
       <c r="F15">
-        <v>27.8047767407881</v>
+        <v>33.20342966399441</v>
       </c>
       <c r="G15">
-        <v>3.607279544115959</v>
+        <v>2.001283618290867</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.07896521475335</v>
+        <v>16.44698075645383</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.1557936122111</v>
+        <v>9.507212880354402</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.64487091937854</v>
+        <v>29.78769958653072</v>
       </c>
       <c r="C16">
-        <v>13.69401868219077</v>
+        <v>25.03486332871417</v>
       </c>
       <c r="D16">
-        <v>4.431648317103405</v>
+        <v>2.449326075678008</v>
       </c>
       <c r="F16">
-        <v>27.60484216196934</v>
+        <v>32.08855402737201</v>
       </c>
       <c r="G16">
-        <v>3.60942911638578</v>
+        <v>2.008274267623061</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.09253930655924</v>
+        <v>16.13328567212088</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.20280178366986</v>
+        <v>9.705700323277748</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.37338870251203</v>
+        <v>29.12767947376759</v>
       </c>
       <c r="C17">
-        <v>13.43562279655227</v>
+        <v>24.46884004662359</v>
       </c>
       <c r="D17">
-        <v>4.441309734427143</v>
+        <v>2.49330148613416</v>
       </c>
       <c r="F17">
-        <v>27.48453620031837</v>
+        <v>31.43961001815025</v>
       </c>
       <c r="G17">
-        <v>3.610775844528149</v>
+        <v>2.012574052752623</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.10282202350594</v>
+        <v>15.94929595786945</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.23216277243153</v>
+        <v>9.827518174819588</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.21556538499416</v>
+        <v>28.74317804238775</v>
       </c>
       <c r="C18">
-        <v>13.28488976336113</v>
+        <v>24.1394175656385</v>
       </c>
       <c r="D18">
-        <v>4.446925267713351</v>
+        <v>2.518573256001339</v>
       </c>
       <c r="F18">
-        <v>27.41622481714136</v>
+        <v>31.06637478562921</v>
       </c>
       <c r="G18">
-        <v>3.611560780428304</v>
+        <v>2.015052508108421</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.10945175021748</v>
+        <v>15.84650539995071</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.24924318799629</v>
+        <v>9.897631630677578</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.16184590475504</v>
+        <v>28.61214753288429</v>
       </c>
       <c r="C19">
-        <v>13.23349349876926</v>
+        <v>24.02720990423853</v>
       </c>
       <c r="D19">
-        <v>4.448836663626182</v>
+        <v>2.527126991728747</v>
       </c>
       <c r="F19">
-        <v>27.39324994748705</v>
+        <v>30.94000552135502</v>
       </c>
       <c r="G19">
-        <v>3.611828323935461</v>
+        <v>2.015892695271007</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.11181901207581</v>
+        <v>15.81221694246258</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.25505948087556</v>
+        <v>9.921381471654337</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.4024626958358</v>
+        <v>29.1984424974138</v>
       </c>
       <c r="C20">
-        <v>13.463348341362</v>
+        <v>24.52949191187435</v>
       </c>
       <c r="D20">
-        <v>4.440275205625118</v>
+        <v>2.48862268603566</v>
       </c>
       <c r="F20">
-        <v>27.49725184382937</v>
+        <v>31.50868865211357</v>
       </c>
       <c r="G20">
-        <v>3.610631414235891</v>
+        <v>2.012115807548863</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.10165329716157</v>
+        <v>15.96856623006951</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.22901730858116</v>
+        <v>9.814546198676695</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1906054365268</v>
+        <v>31.11064895874042</v>
       </c>
       <c r="C21">
-        <v>14.21028927025823</v>
+        <v>26.17156203815585</v>
       </c>
       <c r="D21">
-        <v>4.412207976877713</v>
+        <v>2.358929080048675</v>
       </c>
       <c r="F21">
-        <v>27.85710277107706</v>
+        <v>33.50678327859896</v>
       </c>
       <c r="G21">
-        <v>3.606733209224617</v>
+        <v>1.999481223070255</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.07606775728936</v>
+        <v>16.53064178535508</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.14381826879696</v>
+        <v>9.455959875012409</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68993563732032</v>
+        <v>32.31879785020858</v>
       </c>
       <c r="C22">
-        <v>14.67931469574046</v>
+        <v>27.21224609900046</v>
       </c>
       <c r="D22">
-        <v>4.394381662515722</v>
+        <v>2.273778849625716</v>
       </c>
       <c r="F22">
-        <v>28.09968000028968</v>
+        <v>34.88817224041206</v>
       </c>
       <c r="G22">
-        <v>3.604276875201072</v>
+        <v>1.991244667443576</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.06578336355483</v>
+        <v>16.92653755747668</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.08984052581338</v>
+        <v>9.22140882257295</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.42491430763704</v>
+        <v>31.67769749589597</v>
       </c>
       <c r="C23">
-        <v>14.43075327188616</v>
+        <v>26.65969056564587</v>
       </c>
       <c r="D23">
-        <v>4.403848769755451</v>
+        <v>2.319269797294786</v>
       </c>
       <c r="F23">
-        <v>27.96955975766434</v>
+        <v>34.15200251753172</v>
       </c>
       <c r="G23">
-        <v>3.605579538083882</v>
+        <v>1.99564014838253</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.07068026117194</v>
+        <v>16.71255329200558</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.11849403991833</v>
+        <v>9.346642403102512</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.38932376735417</v>
+        <v>29.16646627445149</v>
       </c>
       <c r="C24">
-        <v>13.45082040180503</v>
+        <v>24.50208370810443</v>
       </c>
       <c r="D24">
-        <v>4.440742725846909</v>
+        <v>2.490738001399604</v>
       </c>
       <c r="F24">
-        <v>27.49150043550759</v>
+        <v>31.47745867178204</v>
       </c>
       <c r="G24">
-        <v>3.610696677884021</v>
+        <v>2.012322959828104</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.10217944239181</v>
+        <v>15.95984485097818</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.23043874842781</v>
+        <v>9.82041057725022</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20898526075382</v>
+        <v>26.27044154677339</v>
       </c>
       <c r="C25">
-        <v>12.31345148663811</v>
+        <v>22.02627809864964</v>
       </c>
       <c r="D25">
-        <v>4.48277957033947</v>
+        <v>2.674980795758125</v>
       </c>
       <c r="F25">
-        <v>27.00994159702672</v>
+        <v>28.75489095509732</v>
       </c>
       <c r="G25">
-        <v>3.616611814980879</v>
+        <v>2.030533748342577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.16345883978886</v>
+        <v>15.26307699592921</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.35856590356731</v>
+        <v>10.33353259705236</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.96812533309078</v>
+        <v>20.09422254823036</v>
       </c>
       <c r="C2">
-        <v>20.06662427618742</v>
+        <v>13.27613043809659</v>
       </c>
       <c r="D2">
-        <v>2.811099427179151</v>
+        <v>4.555435311980259</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>26.7518918831581</v>
+        <v>16.91345299630439</v>
       </c>
       <c r="G2">
-        <v>2.044251028036537</v>
+        <v>20.8526605834083</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.693864249967886</v>
       </c>
       <c r="I2">
-        <v>14.84055387206996</v>
+        <v>2.916340573361302</v>
+      </c>
+      <c r="J2">
+        <v>8.084732101357577</v>
       </c>
       <c r="K2">
+        <v>13.19738482784165</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.71607929741868</v>
+        <v>9.131628284097857</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.24745434751483</v>
+      </c>
+      <c r="Q2">
+        <v>13.18788618593717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.29778997964701</v>
+        <v>18.77244020859974</v>
       </c>
       <c r="C3">
-        <v>18.64926242576605</v>
+        <v>12.87111606286762</v>
       </c>
       <c r="D3">
-        <v>2.904150612035557</v>
+        <v>4.355565228413181</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25.39858170820675</v>
+        <v>16.37261230979858</v>
       </c>
       <c r="G3">
-        <v>2.053792897881414</v>
+        <v>20.07193111759679</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.603402063304847</v>
       </c>
       <c r="I3">
-        <v>14.60599992748353</v>
+        <v>2.78164629427277</v>
+      </c>
+      <c r="J3">
+        <v>8.047837809935928</v>
       </c>
       <c r="K3">
+        <v>13.22971855353701</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.97958516196853</v>
+        <v>8.785782059602372</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.27669452699464</v>
+      </c>
+      <c r="Q3">
+        <v>12.97502671497144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.21670932206862</v>
+        <v>17.90851871789566</v>
       </c>
       <c r="C4">
-        <v>17.73375396643826</v>
+        <v>12.61588347543457</v>
       </c>
       <c r="D4">
-        <v>2.961839968016614</v>
+        <v>4.22775127850533</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>24.5715339541766</v>
+        <v>16.03969364572501</v>
       </c>
       <c r="G4">
-        <v>2.059788246676503</v>
+        <v>19.58762962857531</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.717798045020125</v>
       </c>
       <c r="I4">
-        <v>14.48582021825479</v>
+        <v>2.696439162798109</v>
+      </c>
+      <c r="J4">
+        <v>8.028088844078665</v>
       </c>
       <c r="K4">
+        <v>13.25378098058479</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.14386050174406</v>
+        <v>8.566090068121015</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.29734540788809</v>
+      </c>
+      <c r="Q4">
+        <v>12.84851419709378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.76203887888346</v>
+        <v>17.53842035121335</v>
       </c>
       <c r="C5">
-        <v>17.34913417073049</v>
+        <v>12.51571542085496</v>
       </c>
       <c r="D5">
-        <v>2.985510847789143</v>
+        <v>4.17557257837157</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>24.23584529797965</v>
+        <v>15.89811601425155</v>
       </c>
       <c r="G5">
-        <v>2.062267848907452</v>
+        <v>19.37843245907302</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.765774340940903</v>
       </c>
       <c r="I5">
-        <v>14.44256775731824</v>
+        <v>2.661686850125722</v>
+      </c>
+      <c r="J5">
+        <v>8.019056944925586</v>
       </c>
       <c r="K5">
+        <v>13.26024198012715</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.21148063373925</v>
+        <v>8.474610171483661</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.30742784035424</v>
+      </c>
+      <c r="Q5">
+        <v>12.79361855783839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68568353192877</v>
+        <v>17.47025635398006</v>
       </c>
       <c r="C6">
-        <v>17.28456650729735</v>
+        <v>12.50564156277735</v>
       </c>
       <c r="D6">
-        <v>2.989451794571625</v>
+        <v>4.168246751653993</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>24.18019726632364</v>
+        <v>15.86739108601229</v>
       </c>
       <c r="G6">
-        <v>2.062681844896476</v>
+        <v>19.33030830587409</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.774154150412059</v>
       </c>
       <c r="I6">
-        <v>14.43572298580556</v>
+        <v>2.656826877558693</v>
+      </c>
+      <c r="J6">
+        <v>8.015517166284571</v>
       </c>
       <c r="K6">
+        <v>13.25603613236266</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.22275124299227</v>
+        <v>8.459078750764409</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.3103752969281</v>
+      </c>
+      <c r="Q6">
+        <v>12.77915649852585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.21063487144681</v>
+        <v>17.88782932901616</v>
       </c>
       <c r="C7">
-        <v>17.72861379878527</v>
+        <v>12.63258932716905</v>
       </c>
       <c r="D7">
-        <v>2.962158517169676</v>
+        <v>4.230862106361951</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>24.56700078596766</v>
+        <v>16.01827171101435</v>
       </c>
       <c r="G7">
-        <v>2.059821537212775</v>
+        <v>19.54883827002819</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.719373654152609</v>
       </c>
       <c r="I7">
-        <v>14.48521410641248</v>
+        <v>2.698202566104887</v>
+      </c>
+      <c r="J7">
+        <v>8.022288947299897</v>
       </c>
       <c r="K7">
+        <v>13.23928757281766</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.14476964390771</v>
+        <v>8.564232932281886</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.30091238915149</v>
+      </c>
+      <c r="Q7">
+        <v>12.83306600481222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.40360619098729</v>
+        <v>19.63008255099493</v>
       </c>
       <c r="C8">
-        <v>19.58720510868518</v>
+        <v>13.1612191268113</v>
       </c>
       <c r="D8">
-        <v>2.843081950263172</v>
+        <v>4.492416726685717</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>26.28465803581992</v>
+        <v>16.70244668665622</v>
       </c>
       <c r="G8">
-        <v>2.047514026916489</v>
+        <v>20.53921602276275</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.633207160303367</v>
       </c>
       <c r="I8">
-        <v>14.75457411790013</v>
+        <v>2.87283483866627</v>
+      </c>
+      <c r="J8">
+        <v>8.063963296659782</v>
       </c>
       <c r="K8">
+        <v>13.18840613449754</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.8064538057405</v>
+        <v>9.013199490427706</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.26179013979789</v>
+      </c>
+      <c r="Q8">
+        <v>13.09459348353485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27181456122404</v>
+        <v>22.65858579152303</v>
       </c>
       <c r="C9">
-        <v>22.88093059245237</v>
+        <v>14.1121490749013</v>
       </c>
       <c r="D9">
-        <v>2.612917403922259</v>
+        <v>4.957321896872606</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>29.67195861659648</v>
+        <v>18.06223034283963</v>
       </c>
       <c r="G9">
-        <v>2.024359075685523</v>
+        <v>22.4906476109798</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.048910028217112</v>
       </c>
       <c r="I9">
-        <v>15.48313955501892</v>
+        <v>3.193093609966709</v>
+      </c>
+      <c r="J9">
+        <v>8.179248084305119</v>
       </c>
       <c r="K9">
+        <v>13.14963196653676</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.16013511199826</v>
+        <v>9.833041530056978</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.20054031956366</v>
+      </c>
+      <c r="Q9">
+        <v>13.66473004122775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.86235776503354</v>
+        <v>24.57035316302139</v>
       </c>
       <c r="C10">
-        <v>25.09893342032243</v>
+        <v>14.86541547990277</v>
       </c>
       <c r="D10">
-        <v>2.444304560077164</v>
+        <v>5.289837084050003</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>32.16260756693293</v>
+        <v>18.95350203275878</v>
       </c>
       <c r="G10">
-        <v>2.007784269626507</v>
+        <v>23.71952327028432</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.32300132686741</v>
       </c>
       <c r="I10">
-        <v>16.15469659927433</v>
+        <v>3.413056465267418</v>
+      </c>
+      <c r="J10">
+        <v>8.250322474007273</v>
       </c>
       <c r="K10">
+        <v>13.06968985023837</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.691804448217901</v>
+        <v>10.21287025650304</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.19306126563325</v>
+      </c>
+      <c r="Q10">
+        <v>14.02979102137813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98919461660002</v>
+        <v>24.8711889333998</v>
       </c>
       <c r="C11">
-        <v>26.0670835928144</v>
+        <v>15.96800049239785</v>
       </c>
       <c r="D11">
-        <v>2.367352670712791</v>
+        <v>5.578410030268451</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>33.369315591922</v>
+        <v>18.63530462509745</v>
       </c>
       <c r="G11">
-        <v>2.000298268002156</v>
+        <v>22.97709446291407</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.090012230638483</v>
       </c>
       <c r="I11">
-        <v>16.49258038236126</v>
+        <v>3.472744982203433</v>
+      </c>
+      <c r="J11">
+        <v>8.051494311931354</v>
       </c>
       <c r="K11">
+        <v>12.4358506351529</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.479197017574382</v>
+        <v>8.86847887895158</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.39735328654661</v>
+      </c>
+      <c r="Q11">
+        <v>13.62006979123498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.40874389245358</v>
+        <v>24.75323879658562</v>
       </c>
       <c r="C12">
-        <v>26.42809938951915</v>
+        <v>16.75752458190182</v>
       </c>
       <c r="D12">
-        <v>2.338148223779957</v>
+        <v>5.751292291713058</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>33.84527487350864</v>
+        <v>18.19391776917237</v>
       </c>
       <c r="G12">
-        <v>1.99746742726637</v>
+        <v>22.12170283108033</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.284821528326345</v>
       </c>
       <c r="I12">
-        <v>16.62540849564648</v>
+        <v>3.478210206939468</v>
+      </c>
+      <c r="J12">
+        <v>7.871900612754988</v>
       </c>
       <c r="K12">
+        <v>11.94759742533149</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.398662033882379</v>
+        <v>7.73197323492463</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.58051503790331</v>
+      </c>
+      <c r="Q12">
+        <v>13.20694365058418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.31870039729342</v>
+        <v>24.28465561529633</v>
       </c>
       <c r="C13">
-        <v>26.35059270564212</v>
+        <v>17.38613769334637</v>
       </c>
       <c r="D13">
-        <v>2.344441236333915</v>
+        <v>5.854367038181412</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>33.74286562793518</v>
+        <v>17.59143986125989</v>
       </c>
       <c r="G13">
-        <v>1.998076989763718</v>
+        <v>21.05375073419513</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.576065166704486</v>
       </c>
       <c r="I13">
-        <v>16.59658100277926</v>
+        <v>3.445416121065513</v>
+      </c>
+      <c r="J13">
+        <v>7.68629566952293</v>
       </c>
       <c r="K13">
+        <v>11.52312039322343</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.41600930238868</v>
+        <v>6.710906290527902</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.75883393304106</v>
+      </c>
+      <c r="Q13">
+        <v>12.73802776037064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.02385307392714</v>
+        <v>23.78758253648654</v>
       </c>
       <c r="C14">
-        <v>26.09689519673605</v>
+        <v>17.76631566433612</v>
       </c>
       <c r="D14">
-        <v>2.364951455772098</v>
+        <v>5.897118152751998</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>33.40851725528204</v>
+        <v>17.08552810277553</v>
       </c>
       <c r="G14">
-        <v>2.00006531747259</v>
+        <v>20.18842457581353</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.511415498681586</v>
       </c>
       <c r="I14">
-        <v>16.50340916215804</v>
+        <v>3.406296637285612</v>
+      </c>
+      <c r="J14">
+        <v>7.55220021920364</v>
       </c>
       <c r="K14">
+        <v>11.25797026258557</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.472572397121521</v>
+        <v>6.100113154407161</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.88271280284003</v>
+      </c>
+      <c r="Q14">
+        <v>12.37864325005186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.84232645612472</v>
+        <v>23.58457117658045</v>
       </c>
       <c r="C15">
-        <v>25.94077714371153</v>
+        <v>17.82870159481935</v>
       </c>
       <c r="D15">
-        <v>2.377505329076329</v>
+        <v>5.893832606916688</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>33.20342966399441</v>
+        <v>16.92151753792363</v>
       </c>
       <c r="G15">
-        <v>2.001283618290867</v>
+        <v>19.91992272000051</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.725009891807558</v>
       </c>
       <c r="I15">
-        <v>16.44698075645383</v>
+        <v>3.38917580304305</v>
+      </c>
+      <c r="J15">
+        <v>7.517066408132806</v>
       </c>
       <c r="K15">
+        <v>11.20279141901242</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.507212880354402</v>
+        <v>5.968606031835558</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.9113679293645</v>
+      </c>
+      <c r="Q15">
+        <v>12.2753634360821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.78769958653072</v>
+        <v>22.85423987760642</v>
       </c>
       <c r="C16">
-        <v>25.03486332871417</v>
+        <v>17.42288973218881</v>
       </c>
       <c r="D16">
-        <v>2.449326075678008</v>
+        <v>5.744125776582582</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>32.08855402737201</v>
+        <v>16.61846349155667</v>
       </c>
       <c r="G16">
-        <v>2.008274267623061</v>
+        <v>19.52445439644121</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.462569709866169</v>
       </c>
       <c r="I16">
-        <v>16.13328567212088</v>
+        <v>3.303330058125534</v>
+      </c>
+      <c r="J16">
+        <v>7.517712950577858</v>
       </c>
       <c r="K16">
+        <v>11.32090373301927</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.705700323277748</v>
+        <v>5.97245748900675</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.86682437169981</v>
+      </c>
+      <c r="Q16">
+        <v>12.18932845722405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.12767947376759</v>
+        <v>22.55927460454232</v>
       </c>
       <c r="C17">
-        <v>24.46884004662359</v>
+        <v>16.89565778084823</v>
       </c>
       <c r="D17">
-        <v>2.49330148613416</v>
+        <v>5.603411554185562</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>31.43961001815025</v>
+        <v>16.66466112948667</v>
       </c>
       <c r="G17">
-        <v>2.012574052752623</v>
+        <v>19.70012619411797</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.716860053864361</v>
       </c>
       <c r="I17">
-        <v>15.94929595786945</v>
+        <v>3.258240662323771</v>
+      </c>
+      <c r="J17">
+        <v>7.590410444519055</v>
       </c>
       <c r="K17">
+        <v>11.54792825265525</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.827518174819588</v>
+        <v>6.278768755622687</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.76837864557833</v>
+      </c>
+      <c r="Q17">
+        <v>12.3190043184204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.74317804238775</v>
+        <v>22.62898133522108</v>
       </c>
       <c r="C18">
-        <v>24.1394175656385</v>
+        <v>16.20364356544376</v>
       </c>
       <c r="D18">
-        <v>2.518573256001339</v>
+        <v>5.453715212582791</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>31.06637478562921</v>
+        <v>17.02730639938026</v>
       </c>
       <c r="G18">
-        <v>2.015052508108421</v>
+        <v>20.40828333783357</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.509036937454882</v>
       </c>
       <c r="I18">
-        <v>15.84650539995071</v>
+        <v>3.242419462694196</v>
+      </c>
+      <c r="J18">
+        <v>7.735637365593212</v>
       </c>
       <c r="K18">
+        <v>11.91320350127691</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.897631630677578</v>
+        <v>6.99910256683031</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.61382200919919</v>
+      </c>
+      <c r="Q18">
+        <v>12.65563243803605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.61214753288429</v>
+        <v>22.96308442594893</v>
       </c>
       <c r="C19">
-        <v>24.02720990423853</v>
+        <v>15.49647229769616</v>
       </c>
       <c r="D19">
-        <v>2.527126991728747</v>
+        <v>5.317136478262907</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>30.94000552135502</v>
+        <v>17.57638268076804</v>
       </c>
       <c r="G19">
-        <v>2.015892695271007</v>
+        <v>21.41850556228934</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.170465694191595</v>
       </c>
       <c r="I19">
-        <v>15.81221694246258</v>
+        <v>3.261587957604573</v>
+      </c>
+      <c r="J19">
+        <v>7.917443698877229</v>
       </c>
       <c r="K19">
+        <v>12.35708116419937</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.921381471654337</v>
+        <v>8.114301406771188</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.44317562320823</v>
+      </c>
+      <c r="Q19">
+        <v>13.10428089971749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.1984424974138</v>
+        <v>24.0439144265227</v>
       </c>
       <c r="C20">
-        <v>24.52949191187435</v>
+        <v>14.72595611970071</v>
       </c>
       <c r="D20">
-        <v>2.48862268603566</v>
+        <v>5.215349042008651</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>31.50868865211357</v>
+        <v>18.66474565477102</v>
       </c>
       <c r="G20">
-        <v>2.012115807548863</v>
+        <v>23.29850729324574</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.247966451699248</v>
       </c>
       <c r="I20">
-        <v>15.96856623006951</v>
+        <v>3.363815255128127</v>
+      </c>
+      <c r="J20">
+        <v>8.212500178153316</v>
       </c>
       <c r="K20">
+        <v>13.04147791666318</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.814546198676695</v>
+        <v>10.10532166931102</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.20756254087176</v>
+      </c>
+      <c r="Q20">
+        <v>13.88781683493521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.11064895874042</v>
+        <v>25.5344883362352</v>
       </c>
       <c r="C21">
-        <v>26.17156203815585</v>
+        <v>15.15147969816077</v>
       </c>
       <c r="D21">
-        <v>2.358929080048675</v>
+        <v>5.434410334921193</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>33.50678327859896</v>
+        <v>19.47790578198653</v>
       </c>
       <c r="G21">
-        <v>1.999481223070255</v>
+        <v>24.47306656440709</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.473431346332865</v>
       </c>
       <c r="I21">
-        <v>16.53064178535508</v>
+        <v>3.535692706779098</v>
+      </c>
+      <c r="J21">
+        <v>8.315842394585973</v>
       </c>
       <c r="K21">
+        <v>13.10306631435579</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.455959875012409</v>
+        <v>10.66496859139285</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.17200317279148</v>
+      </c>
+      <c r="Q21">
+        <v>14.28248509262477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.31879785020858</v>
+        <v>26.44828605080309</v>
       </c>
       <c r="C22">
-        <v>27.21224609900046</v>
+        <v>15.44453765153082</v>
       </c>
       <c r="D22">
-        <v>2.273778849625716</v>
+        <v>5.576803124039933</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>34.88817224041206</v>
+        <v>19.98252153797072</v>
       </c>
       <c r="G22">
-        <v>1.991244667443576</v>
+        <v>25.19116595597056</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.611330213364636</v>
       </c>
       <c r="I22">
-        <v>16.92653755747668</v>
+        <v>3.640329237707074</v>
+      </c>
+      <c r="J22">
+        <v>8.379941481866613</v>
       </c>
       <c r="K22">
+        <v>13.13225911255836</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.22140882257295</v>
+        <v>10.92962276073147</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.15684495593465</v>
+      </c>
+      <c r="Q22">
+        <v>14.52662923087967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.67769749589597</v>
+        <v>25.97804631580189</v>
       </c>
       <c r="C23">
-        <v>26.65969056564587</v>
+        <v>15.26987630058019</v>
       </c>
       <c r="D23">
-        <v>2.319269797294786</v>
+        <v>5.497602920614826</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>34.15200251753172</v>
+        <v>19.73270019843908</v>
       </c>
       <c r="G23">
-        <v>1.99564014838253</v>
+        <v>24.84290984390935</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.538844090796522</v>
       </c>
       <c r="I23">
-        <v>16.71255329200558</v>
+        <v>3.581567628638007</v>
+      </c>
+      <c r="J23">
+        <v>8.351801169623865</v>
       </c>
       <c r="K23">
+        <v>13.13306835599542</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.346642403102512</v>
+        <v>10.78963222546225</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.15968149108173</v>
+      </c>
+      <c r="Q23">
+        <v>14.41155035431959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.16646627445149</v>
+        <v>24.08780985575692</v>
       </c>
       <c r="C24">
-        <v>24.50208370810443</v>
+        <v>14.62294973821612</v>
       </c>
       <c r="D24">
-        <v>2.490738001399604</v>
+        <v>5.193007586984855</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>31.47745867178204</v>
+        <v>18.74599550024701</v>
       </c>
       <c r="G24">
-        <v>2.012322959828104</v>
+        <v>23.44987895860082</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.256692389532364</v>
       </c>
       <c r="I24">
-        <v>15.95984485097818</v>
+        <v>3.359796397459628</v>
+      </c>
+      <c r="J24">
+        <v>8.241277125970969</v>
       </c>
       <c r="K24">
+        <v>13.1202295508952</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.82041057725022</v>
+        <v>10.24202627473465</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.18421090999976</v>
+      </c>
+      <c r="Q24">
+        <v>13.95708174449134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.27044154677339</v>
+        <v>21.85951131194813</v>
       </c>
       <c r="C25">
-        <v>22.02627809864964</v>
+        <v>13.89185360016707</v>
       </c>
       <c r="D25">
-        <v>2.674980795758125</v>
+        <v>4.842342726700386</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>28.75489095509732</v>
+        <v>17.6651016082762</v>
       </c>
       <c r="G25">
-        <v>2.030533748342577</v>
+        <v>21.91173790838796</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.938395493453795</v>
       </c>
       <c r="I25">
-        <v>15.26307699592921</v>
+        <v>3.112530509598536</v>
+      </c>
+      <c r="J25">
+        <v>8.135467544579395</v>
       </c>
       <c r="K25">
+        <v>13.13001437984121</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.33353259705236</v>
+        <v>9.617361731659255</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.22169381576271</v>
+      </c>
+      <c r="Q25">
+        <v>13.48214819495149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09422254823036</v>
+        <v>19.86148520000968</v>
       </c>
       <c r="C2">
-        <v>13.27613043809659</v>
+        <v>13.33849615998018</v>
       </c>
       <c r="D2">
-        <v>4.555435311980259</v>
+        <v>4.622396990531341</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.91345299630439</v>
+        <v>16.6079642203576</v>
       </c>
       <c r="G2">
-        <v>20.8526605834083</v>
+        <v>19.64470638519732</v>
       </c>
       <c r="H2">
-        <v>1.693864249967886</v>
+        <v>1.705077229676735</v>
       </c>
       <c r="I2">
-        <v>2.916340573361302</v>
+        <v>2.931069715988893</v>
       </c>
       <c r="J2">
-        <v>8.084732101357577</v>
+        <v>8.63340890072323</v>
       </c>
       <c r="K2">
-        <v>13.19738482784165</v>
+        <v>12.88495703828413</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.52161293611209</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.580190923764271</v>
       </c>
       <c r="N2">
-        <v>9.131628284097857</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.24745434751483</v>
+        <v>9.13904571551029</v>
       </c>
       <c r="Q2">
-        <v>13.18788618593717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.29180668438611</v>
+      </c>
+      <c r="S2">
+        <v>12.95917916295882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.77244020859974</v>
+        <v>18.58490388929269</v>
       </c>
       <c r="C3">
-        <v>12.87111606286762</v>
+        <v>12.85252512263453</v>
       </c>
       <c r="D3">
-        <v>4.355565228413181</v>
+        <v>4.407231825107577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.37261230979858</v>
+        <v>16.11501725168131</v>
       </c>
       <c r="G3">
-        <v>20.07193111759679</v>
+        <v>18.92096595563083</v>
       </c>
       <c r="H3">
-        <v>1.603402063304847</v>
+        <v>1.580595446791535</v>
       </c>
       <c r="I3">
-        <v>2.78164629427277</v>
+        <v>2.809766765733501</v>
       </c>
       <c r="J3">
-        <v>8.047837809935928</v>
+        <v>8.587252146349389</v>
       </c>
       <c r="K3">
-        <v>13.22971855353701</v>
+        <v>12.94529964540433</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.6642510453469</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.531940741665942</v>
       </c>
       <c r="N3">
-        <v>8.785782059602372</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.27669452699464</v>
+        <v>8.800921421341625</v>
       </c>
       <c r="Q3">
-        <v>12.97502671497144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.29697126371957</v>
+      </c>
+      <c r="S3">
+        <v>12.78061938256343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.90851871789566</v>
+        <v>17.75035815126856</v>
       </c>
       <c r="C4">
-        <v>12.61588347543457</v>
+        <v>12.54632152193337</v>
       </c>
       <c r="D4">
-        <v>4.22775127850533</v>
+        <v>4.269594427455801</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.03969364572501</v>
+        <v>15.81116321114217</v>
       </c>
       <c r="G4">
-        <v>19.58762962857531</v>
+        <v>18.47297180449814</v>
       </c>
       <c r="H4">
-        <v>1.717798045020125</v>
+        <v>1.6878262311878</v>
       </c>
       <c r="I4">
-        <v>2.696439162798109</v>
+        <v>2.733151016642552</v>
       </c>
       <c r="J4">
-        <v>8.028088844078665</v>
+        <v>8.559852535711267</v>
       </c>
       <c r="K4">
-        <v>13.25378098058479</v>
+        <v>12.98535079924646</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.75387794460855</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.524006501532026</v>
       </c>
       <c r="N4">
-        <v>8.566090068121015</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.29734540788809</v>
+        <v>8.586359974099585</v>
       </c>
       <c r="Q4">
-        <v>12.84851419709378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.30318895230605</v>
+      </c>
+      <c r="S4">
+        <v>12.67433724240111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.53842035121335</v>
+        <v>17.39262856645261</v>
       </c>
       <c r="C5">
-        <v>12.51571542085496</v>
+        <v>12.42557704108712</v>
       </c>
       <c r="D5">
-        <v>4.17557257837157</v>
+        <v>4.213328833271972</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.89811601425155</v>
+        <v>15.68129220213119</v>
       </c>
       <c r="G5">
-        <v>19.37843245907302</v>
+        <v>18.27854459781823</v>
       </c>
       <c r="H5">
-        <v>1.765774340940903</v>
+        <v>1.73282276797918</v>
       </c>
       <c r="I5">
-        <v>2.661686850125722</v>
+        <v>2.702260683215015</v>
       </c>
       <c r="J5">
-        <v>8.019056944925586</v>
+        <v>8.547264098066751</v>
       </c>
       <c r="K5">
-        <v>13.26024198012715</v>
+        <v>12.99813683362428</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.78702151236727</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.523762202003868</v>
       </c>
       <c r="N5">
-        <v>8.474610171483661</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.30742784035424</v>
+        <v>8.497072910492861</v>
       </c>
       <c r="Q5">
-        <v>12.79361855783839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.30754846819281</v>
+      </c>
+      <c r="S5">
+        <v>12.62747446323059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47025635398006</v>
+        <v>17.32652189994472</v>
       </c>
       <c r="C6">
-        <v>12.50564156277735</v>
+        <v>12.41264302411209</v>
       </c>
       <c r="D6">
-        <v>4.168246751653993</v>
+        <v>4.205342192059037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.86739108601229</v>
+        <v>15.65248769752974</v>
       </c>
       <c r="G6">
-        <v>19.33030830587409</v>
+        <v>18.23251327836025</v>
       </c>
       <c r="H6">
-        <v>1.774154150412059</v>
+        <v>1.740699447052218</v>
       </c>
       <c r="I6">
-        <v>2.656826877558693</v>
+        <v>2.698413592444687</v>
       </c>
       <c r="J6">
-        <v>8.015517166284571</v>
+        <v>8.543157953824851</v>
       </c>
       <c r="K6">
-        <v>13.25603613236266</v>
+        <v>12.99509578636827</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.78779938786978</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.521020216893573</v>
       </c>
       <c r="N6">
-        <v>8.459078750764409</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.3103752969281</v>
+        <v>8.481914577113862</v>
       </c>
       <c r="Q6">
-        <v>12.77915649852585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.3096371908472</v>
+      </c>
+      <c r="S6">
+        <v>12.61435084682587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.88782932901616</v>
+        <v>17.72429572933786</v>
       </c>
       <c r="C7">
-        <v>12.63258932716905</v>
+        <v>12.55804816413365</v>
       </c>
       <c r="D7">
-        <v>4.230862106361951</v>
+        <v>4.275474623828637</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.01827171101435</v>
+        <v>15.77655952545281</v>
       </c>
       <c r="G7">
-        <v>19.54883827002819</v>
+        <v>18.53430905955546</v>
       </c>
       <c r="H7">
-        <v>1.719373654152609</v>
+        <v>1.689721623918097</v>
       </c>
       <c r="I7">
-        <v>2.698202566104887</v>
+        <v>2.7354589596809</v>
       </c>
       <c r="J7">
-        <v>8.022288947299897</v>
+        <v>8.513908408126495</v>
       </c>
       <c r="K7">
-        <v>13.23928757281766</v>
+        <v>12.96661801091257</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.73740687074853</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.512405179797839</v>
       </c>
       <c r="N7">
-        <v>8.564232932281886</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.30091238915149</v>
+        <v>8.584287339082838</v>
       </c>
       <c r="Q7">
-        <v>12.83306600481222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.30824577309239</v>
+      </c>
+      <c r="S7">
+        <v>12.64919152441326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.63008255099493</v>
+        <v>19.39574680444407</v>
       </c>
       <c r="C8">
-        <v>13.1612191268113</v>
+        <v>13.17793377977928</v>
       </c>
       <c r="D8">
-        <v>4.492416726685717</v>
+        <v>4.563023355853217</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.70244668665622</v>
+        <v>16.37087876233406</v>
       </c>
       <c r="G8">
-        <v>20.53921602276275</v>
+        <v>19.67023556198326</v>
       </c>
       <c r="H8">
-        <v>1.633207160303367</v>
+        <v>1.647074681176731</v>
       </c>
       <c r="I8">
-        <v>2.87283483866627</v>
+        <v>2.89188585842284</v>
       </c>
       <c r="J8">
-        <v>8.063963296659782</v>
+        <v>8.478869438010731</v>
       </c>
       <c r="K8">
-        <v>13.18840613449754</v>
+        <v>12.87101615881244</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.54224725504748</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.534658497067705</v>
       </c>
       <c r="N8">
-        <v>9.013199490427706</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.26179013979789</v>
+        <v>9.022457689179392</v>
       </c>
       <c r="Q8">
-        <v>13.09459348353485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.30280409813046</v>
+      </c>
+      <c r="S8">
+        <v>12.84580389839388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.65858579152303</v>
+        <v>22.3181318154268</v>
       </c>
       <c r="C9">
-        <v>14.1121490749013</v>
+        <v>14.31643632592969</v>
       </c>
       <c r="D9">
-        <v>4.957321896872606</v>
+        <v>5.064972632670513</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.06223034283963</v>
+        <v>17.60262699725021</v>
       </c>
       <c r="G9">
-        <v>22.4906476109798</v>
+        <v>21.54471764721352</v>
       </c>
       <c r="H9">
-        <v>2.048910028217112</v>
+        <v>2.036136605690252</v>
       </c>
       <c r="I9">
-        <v>3.193093609966709</v>
+        <v>3.179459322854477</v>
       </c>
       <c r="J9">
-        <v>8.179248084305119</v>
+        <v>8.571591928016799</v>
       </c>
       <c r="K9">
-        <v>13.14963196653676</v>
+        <v>12.75082572734983</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.21106436217487</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.777465846878045</v>
       </c>
       <c r="N9">
-        <v>9.833041530056978</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.20054031956366</v>
+        <v>9.825018135161878</v>
       </c>
       <c r="Q9">
-        <v>13.66473004122775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.30499984803321</v>
+      </c>
+      <c r="S9">
+        <v>13.3190322486327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.57035316302139</v>
+        <v>24.14015026829454</v>
       </c>
       <c r="C10">
-        <v>14.86541547990277</v>
+        <v>15.16576475292832</v>
       </c>
       <c r="D10">
-        <v>5.289837084050003</v>
+        <v>5.434565550494737</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.95350203275878</v>
+        <v>18.34174494849473</v>
       </c>
       <c r="G10">
-        <v>23.71952327028432</v>
+        <v>23.22495558757763</v>
       </c>
       <c r="H10">
-        <v>2.32300132686741</v>
+        <v>2.290492540011735</v>
       </c>
       <c r="I10">
-        <v>3.413056465267418</v>
+        <v>3.376149441842937</v>
       </c>
       <c r="J10">
-        <v>8.250322474007273</v>
+        <v>8.40228446338033</v>
       </c>
       <c r="K10">
-        <v>13.06968985023837</v>
+        <v>12.58794456547692</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.91631565736748</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.970272216349448</v>
       </c>
       <c r="N10">
-        <v>10.21287025650304</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.19306126563325</v>
+        <v>10.19291913992405</v>
       </c>
       <c r="Q10">
-        <v>14.02979102137813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.35486434806081</v>
+      </c>
+      <c r="S10">
+        <v>13.56405773150358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.8711889333998</v>
+        <v>24.40477487023743</v>
       </c>
       <c r="C11">
-        <v>15.96800049239785</v>
+        <v>16.22981142971941</v>
       </c>
       <c r="D11">
-        <v>5.578410030268451</v>
+        <v>5.752482062863526</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.63530462509745</v>
+        <v>17.90450182302139</v>
       </c>
       <c r="G11">
-        <v>22.97709446291407</v>
+        <v>23.62000403013837</v>
       </c>
       <c r="H11">
-        <v>3.090012230638483</v>
+        <v>3.06049463530811</v>
       </c>
       <c r="I11">
-        <v>3.472744982203433</v>
+        <v>3.428653650571984</v>
       </c>
       <c r="J11">
-        <v>8.051494311931354</v>
+        <v>7.80213475936468</v>
       </c>
       <c r="K11">
-        <v>12.4358506351529</v>
+        <v>11.96056786978372</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.4356578956338</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.555069680516249</v>
       </c>
       <c r="N11">
-        <v>8.86847887895158</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.39735328654661</v>
+        <v>8.841817879408588</v>
       </c>
       <c r="Q11">
-        <v>13.62006979123498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.60006947557194</v>
+      </c>
+      <c r="S11">
+        <v>13.06620400197641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.75323879658562</v>
+        <v>24.28947481012553</v>
       </c>
       <c r="C12">
-        <v>16.75752458190182</v>
+        <v>16.97303945427192</v>
       </c>
       <c r="D12">
-        <v>5.751292291713058</v>
+        <v>5.934233530519721</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.19391776917237</v>
+        <v>17.43602806609249</v>
       </c>
       <c r="G12">
-        <v>22.12170283108033</v>
+        <v>23.33802354346296</v>
       </c>
       <c r="H12">
-        <v>4.284821528326345</v>
+        <v>4.263204814474189</v>
       </c>
       <c r="I12">
-        <v>3.478210206939468</v>
+        <v>3.432006992476943</v>
       </c>
       <c r="J12">
-        <v>7.871900612754988</v>
+        <v>7.488163018586726</v>
       </c>
       <c r="K12">
-        <v>11.94759742533149</v>
+        <v>11.5159361636601</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.1394121093395</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.18907160383829</v>
       </c>
       <c r="N12">
-        <v>7.73197323492463</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.58051503790331</v>
+        <v>7.701751333698609</v>
       </c>
       <c r="Q12">
-        <v>13.20694365058418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.79798882234955</v>
+      </c>
+      <c r="S12">
+        <v>12.6382633195157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28465561529633</v>
+        <v>23.86420776980243</v>
       </c>
       <c r="C13">
-        <v>17.38613769334637</v>
+        <v>17.56836034533076</v>
       </c>
       <c r="D13">
-        <v>5.854367038181412</v>
+        <v>6.024580510040738</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.59143986125989</v>
+        <v>16.90547124599153</v>
       </c>
       <c r="G13">
-        <v>21.05375073419513</v>
+        <v>22.23382021159359</v>
       </c>
       <c r="H13">
-        <v>5.576065166704486</v>
+        <v>5.561262539790893</v>
       </c>
       <c r="I13">
-        <v>3.445416121065513</v>
+        <v>3.403051210078309</v>
       </c>
       <c r="J13">
-        <v>7.68629566952293</v>
+        <v>7.407618474030291</v>
       </c>
       <c r="K13">
-        <v>11.52312039322343</v>
+        <v>11.17243166957655</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.941419374945273</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.836145754896138</v>
       </c>
       <c r="N13">
-        <v>6.710906290527902</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.75883393304106</v>
+        <v>6.680407671705008</v>
       </c>
       <c r="Q13">
-        <v>12.73802776037064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.96546401005404</v>
+      </c>
+      <c r="S13">
+        <v>12.23330988486841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.78758253648654</v>
+        <v>23.41603457409053</v>
       </c>
       <c r="C14">
-        <v>17.76631566433612</v>
+        <v>17.93176118563057</v>
       </c>
       <c r="D14">
-        <v>5.897118152751998</v>
+        <v>6.048500636268262</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.08552810277553</v>
+        <v>16.49405047421443</v>
       </c>
       <c r="G14">
-        <v>20.18842457581353</v>
+        <v>21.07394454301371</v>
       </c>
       <c r="H14">
-        <v>6.511415498681586</v>
+        <v>6.500511438123717</v>
       </c>
       <c r="I14">
-        <v>3.406296637285612</v>
+        <v>3.369570100898622</v>
       </c>
       <c r="J14">
-        <v>7.55220021920364</v>
+        <v>7.442236629777438</v>
       </c>
       <c r="K14">
-        <v>11.25797026258557</v>
+        <v>10.97628066279613</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.840237837808479</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.598801187491992</v>
       </c>
       <c r="N14">
-        <v>6.100113154407161</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.88271280284003</v>
+        <v>6.071472007150764</v>
       </c>
       <c r="Q14">
-        <v>12.37864325005186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.06956552611209</v>
+      </c>
+      <c r="S14">
+        <v>11.9528140926803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.58457117658045</v>
+        <v>23.2330348027608</v>
       </c>
       <c r="C15">
-        <v>17.82870159481935</v>
+        <v>17.9937948407822</v>
       </c>
       <c r="D15">
-        <v>5.893832606916688</v>
+        <v>6.036366123268577</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.92151753792363</v>
+        <v>16.37194081968197</v>
       </c>
       <c r="G15">
-        <v>19.91992272000051</v>
+        <v>20.61793974448036</v>
       </c>
       <c r="H15">
-        <v>6.725009891807558</v>
+        <v>6.715238444379044</v>
       </c>
       <c r="I15">
-        <v>3.38917580304305</v>
+        <v>3.355587822566759</v>
       </c>
       <c r="J15">
-        <v>7.517066408132806</v>
+        <v>7.48963251985324</v>
       </c>
       <c r="K15">
-        <v>11.20279141901242</v>
+        <v>10.94317746920421</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.828044393921134</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.542099527238886</v>
       </c>
       <c r="N15">
-        <v>5.968606031835558</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.9113679293645</v>
+        <v>5.941430890383042</v>
       </c>
       <c r="Q15">
-        <v>12.2753634360821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.08844501746121</v>
+      </c>
+      <c r="S15">
+        <v>11.88319923637202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.85423987760642</v>
+        <v>22.57160703479614</v>
       </c>
       <c r="C16">
-        <v>17.42288973218881</v>
+        <v>17.61441583526151</v>
       </c>
       <c r="D16">
-        <v>5.744125776582582</v>
+        <v>5.850924081702113</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.61846349155667</v>
+        <v>16.22568535397135</v>
       </c>
       <c r="G16">
-        <v>19.52445439644121</v>
+        <v>19.26949900497808</v>
       </c>
       <c r="H16">
-        <v>6.462569709866169</v>
+        <v>6.456015471873284</v>
       </c>
       <c r="I16">
-        <v>3.303330058125534</v>
+        <v>3.282476343536448</v>
       </c>
       <c r="J16">
-        <v>7.517712950577858</v>
+        <v>7.846683699632415</v>
       </c>
       <c r="K16">
-        <v>11.32090373301927</v>
+        <v>11.10506276462899</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.964306891387334</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.578685383642354</v>
       </c>
       <c r="N16">
-        <v>5.97245748900675</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.86682437169981</v>
+        <v>5.953923337586941</v>
       </c>
       <c r="Q16">
-        <v>12.18932845722405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.00222392133152</v>
+      </c>
+      <c r="S16">
+        <v>11.91632998372526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55927460454232</v>
+        <v>22.29648148162252</v>
       </c>
       <c r="C17">
-        <v>16.89565778084823</v>
+        <v>17.10554744003357</v>
       </c>
       <c r="D17">
-        <v>5.603411554185562</v>
+        <v>5.697068123154421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.66466112948667</v>
+        <v>16.32300666439492</v>
       </c>
       <c r="G17">
-        <v>19.70012619411797</v>
+        <v>19.00575777631815</v>
       </c>
       <c r="H17">
-        <v>5.716860053864361</v>
+        <v>5.711333718898787</v>
       </c>
       <c r="I17">
-        <v>3.258240662323771</v>
+        <v>3.243786247408202</v>
       </c>
       <c r="J17">
-        <v>7.590410444519055</v>
+        <v>8.067683653393392</v>
       </c>
       <c r="K17">
-        <v>11.54792825265525</v>
+        <v>11.32856376553177</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.13066713987881</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.721239108371247</v>
       </c>
       <c r="N17">
-        <v>6.278768755622687</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.76837864557833</v>
+        <v>6.26496175627052</v>
       </c>
       <c r="Q17">
-        <v>12.3190043184204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.88683605456518</v>
+      </c>
+      <c r="S17">
+        <v>12.08183199278941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.62898133522108</v>
+        <v>22.35427532857985</v>
       </c>
       <c r="C18">
-        <v>16.20364356544376</v>
+        <v>16.43638519334488</v>
       </c>
       <c r="D18">
-        <v>5.453715212582791</v>
+        <v>5.546924221794893</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.02730639938026</v>
+        <v>16.67719712542629</v>
       </c>
       <c r="G18">
-        <v>20.40828333783357</v>
+        <v>19.48361209623954</v>
       </c>
       <c r="H18">
-        <v>4.509036937454882</v>
+        <v>4.502636892140697</v>
       </c>
       <c r="I18">
-        <v>3.242419462694196</v>
+        <v>3.228846377417141</v>
       </c>
       <c r="J18">
-        <v>7.735637365593212</v>
+        <v>8.259609375683823</v>
       </c>
       <c r="K18">
-        <v>11.91320350127691</v>
+        <v>11.65698070982791</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.36351408651539</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.983749465427501</v>
       </c>
       <c r="N18">
-        <v>6.99910256683031</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.61382200919919</v>
+        <v>6.987365605402498</v>
       </c>
       <c r="Q18">
-        <v>12.65563243803605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.72866422281006</v>
+      </c>
+      <c r="S18">
+        <v>12.40744274673329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.96308442594893</v>
+        <v>22.65578368185187</v>
       </c>
       <c r="C19">
-        <v>15.49647229769616</v>
+        <v>15.75615289165341</v>
       </c>
       <c r="D19">
-        <v>5.317136478262907</v>
+        <v>5.41762349377402</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.57638268076804</v>
+        <v>17.18196792776866</v>
       </c>
       <c r="G19">
-        <v>21.41850556228934</v>
+        <v>20.36863216647071</v>
       </c>
       <c r="H19">
-        <v>3.170465694191595</v>
+        <v>3.160057887598886</v>
       </c>
       <c r="I19">
-        <v>3.261587957604573</v>
+        <v>3.246681548131472</v>
       </c>
       <c r="J19">
-        <v>7.917443698877229</v>
+        <v>8.432756465740198</v>
       </c>
       <c r="K19">
-        <v>12.35708116419937</v>
+        <v>12.04212837309247</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.63037203190452</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.316464196189376</v>
       </c>
       <c r="N19">
-        <v>8.114301406771188</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.44317562320823</v>
+        <v>8.102565673809329</v>
       </c>
       <c r="Q19">
-        <v>13.10428089971749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.56218704943457</v>
+      </c>
+      <c r="S19">
+        <v>12.81704952463324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.0439144265227</v>
+        <v>23.65184483448621</v>
       </c>
       <c r="C20">
-        <v>14.72595611970071</v>
+        <v>15.02547889928073</v>
       </c>
       <c r="D20">
-        <v>5.215349042008651</v>
+        <v>5.342299114573628</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.66474565477102</v>
+        <v>18.13442628347405</v>
       </c>
       <c r="G20">
-        <v>23.29850729324574</v>
+        <v>22.38130870401014</v>
       </c>
       <c r="H20">
-        <v>2.247966451699248</v>
+        <v>2.22166625787609</v>
       </c>
       <c r="I20">
-        <v>3.363815255128127</v>
+        <v>3.337438007764613</v>
       </c>
       <c r="J20">
-        <v>8.212500178153316</v>
+        <v>8.564027323649221</v>
       </c>
       <c r="K20">
-        <v>13.04147791666318</v>
+        <v>12.60111467821454</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.97311586179254</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.889263005992854</v>
       </c>
       <c r="N20">
-        <v>10.10532166931102</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.20756254087176</v>
+        <v>10.08908615396284</v>
       </c>
       <c r="Q20">
-        <v>13.88781683493521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.34947894350423</v>
+      </c>
+      <c r="S20">
+        <v>13.48722827220006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.5344883362352</v>
+        <v>24.99190794937583</v>
       </c>
       <c r="C21">
-        <v>15.15147969816077</v>
+        <v>15.42302329710871</v>
       </c>
       <c r="D21">
-        <v>5.434410334921193</v>
+        <v>5.633706447303977</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.47790578198653</v>
+        <v>18.60654359498196</v>
       </c>
       <c r="G21">
-        <v>24.47306656440709</v>
+        <v>25.44771748061777</v>
       </c>
       <c r="H21">
-        <v>2.473431346332865</v>
+        <v>2.426246656391972</v>
       </c>
       <c r="I21">
-        <v>3.535692706779098</v>
+        <v>3.484330367741149</v>
       </c>
       <c r="J21">
-        <v>8.315842394585973</v>
+        <v>7.812625754961054</v>
       </c>
       <c r="K21">
-        <v>13.10306631435579</v>
+        <v>12.49407326602951</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.76363793412627</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.071327961268866</v>
       </c>
       <c r="N21">
-        <v>10.66496859139285</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.17200317279148</v>
+        <v>10.63689056798341</v>
       </c>
       <c r="Q21">
-        <v>14.28248509262477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.38992293049617</v>
+      </c>
+      <c r="S21">
+        <v>13.60742955083452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.44828605080309</v>
+        <v>25.80886358020568</v>
       </c>
       <c r="C22">
-        <v>15.44453765153082</v>
+        <v>15.68981259127549</v>
       </c>
       <c r="D22">
-        <v>5.576803124039933</v>
+        <v>5.824254836146016</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.98252153797072</v>
+        <v>18.88092912740774</v>
       </c>
       <c r="G22">
-        <v>25.19116595597056</v>
+        <v>27.48025978764232</v>
       </c>
       <c r="H22">
-        <v>2.611330213364636</v>
+        <v>2.550993383332332</v>
       </c>
       <c r="I22">
-        <v>3.640329237707074</v>
+        <v>3.571987138679399</v>
       </c>
       <c r="J22">
-        <v>8.379941481866613</v>
+        <v>7.333071029988397</v>
       </c>
       <c r="K22">
-        <v>13.13225911255836</v>
+        <v>12.40704586229199</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.61788277099969</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.18456210696718</v>
       </c>
       <c r="N22">
-        <v>10.92962276073147</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.15684495593465</v>
+        <v>10.894271117787</v>
       </c>
       <c r="Q22">
-        <v>14.52662923087967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.42785706551095</v>
+      </c>
+      <c r="S22">
+        <v>13.66265802190864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.97804631580189</v>
+        <v>25.40049847279631</v>
       </c>
       <c r="C23">
-        <v>15.26987630058019</v>
+        <v>15.54139521694497</v>
       </c>
       <c r="D23">
-        <v>5.497602920614826</v>
+        <v>5.713438667794692</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.73270019843908</v>
+        <v>18.78338905833834</v>
       </c>
       <c r="G23">
-        <v>24.84290984390935</v>
+        <v>26.21711530793245</v>
       </c>
       <c r="H23">
-        <v>2.538844090796522</v>
+        <v>2.486104111130031</v>
       </c>
       <c r="I23">
-        <v>3.581567628638007</v>
+        <v>3.521724298013599</v>
       </c>
       <c r="J23">
-        <v>8.351801169623865</v>
+        <v>7.668176926226526</v>
       </c>
       <c r="K23">
-        <v>13.13306835599542</v>
+        <v>12.48132174999358</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.71266072842362</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.149098706644404</v>
       </c>
       <c r="N23">
-        <v>10.78963222546225</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.15968149108173</v>
+        <v>10.75847617107092</v>
       </c>
       <c r="Q23">
-        <v>14.41155035431959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.39729545646987</v>
+      </c>
+      <c r="S23">
+        <v>13.67221314751707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.08780985575692</v>
+        <v>23.69345473684473</v>
       </c>
       <c r="C24">
-        <v>14.62294973821612</v>
+        <v>14.9208825751659</v>
       </c>
       <c r="D24">
-        <v>5.193007586984855</v>
+        <v>5.320054918692182</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.74599550024701</v>
+        <v>18.21331815168821</v>
       </c>
       <c r="G24">
-        <v>23.44987895860082</v>
+        <v>22.50866137736686</v>
       </c>
       <c r="H24">
-        <v>2.256692389532364</v>
+        <v>2.230202729819135</v>
       </c>
       <c r="I24">
-        <v>3.359796397459628</v>
+        <v>3.331261742898444</v>
       </c>
       <c r="J24">
-        <v>8.241277125970969</v>
+        <v>8.596474738829347</v>
       </c>
       <c r="K24">
-        <v>13.1202295508952</v>
+        <v>12.6728039928748</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.02389654046848</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.948594004336816</v>
       </c>
       <c r="N24">
-        <v>10.24202627473465</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.18421090999976</v>
+        <v>10.22583789251471</v>
       </c>
       <c r="Q24">
-        <v>13.95708174449134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.32488807080819</v>
+      </c>
+      <c r="S24">
+        <v>13.55389209495226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.85951131194813</v>
+        <v>21.55291145750014</v>
       </c>
       <c r="C25">
-        <v>13.89185360016707</v>
+        <v>14.05765674100313</v>
       </c>
       <c r="D25">
-        <v>4.842342726700386</v>
+        <v>4.93696890798234</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.6651016082762</v>
+        <v>17.25737914987576</v>
       </c>
       <c r="G25">
-        <v>21.91173790838796</v>
+        <v>20.85528657633203</v>
       </c>
       <c r="H25">
-        <v>1.938395493453795</v>
+        <v>1.933144059307222</v>
       </c>
       <c r="I25">
-        <v>3.112530509598536</v>
+        <v>3.109719398303697</v>
       </c>
       <c r="J25">
-        <v>8.135467544579395</v>
+        <v>8.591561261388787</v>
       </c>
       <c r="K25">
-        <v>13.13001437984121</v>
+        <v>12.76214222887997</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.28557461711484</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.678923745891492</v>
       </c>
       <c r="N25">
-        <v>9.617361731659255</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.22169381576271</v>
+        <v>9.614013099856413</v>
       </c>
       <c r="Q25">
-        <v>13.48214819495149</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.30715345906215</v>
+      </c>
+      <c r="S25">
+        <v>13.17681732304803</v>
       </c>
     </row>
   </sheetData>
